--- a/New Microsoft Excel Worksheet (2).xlsx
+++ b/New Microsoft Excel Worksheet (2).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="113">
   <si>
     <t>30 songs</t>
   </si>
@@ -347,6 +347,21 @@
   <si>
     <t>1 slice</t>
   </si>
+  <si>
+    <t>Sandwich cheese</t>
+  </si>
+  <si>
+    <t>Cannelloni (Oliva)</t>
+  </si>
+  <si>
+    <t>1 serve</t>
+  </si>
+  <si>
+    <t>Turkish bread</t>
+  </si>
+  <si>
+    <t>Atlantic Cod</t>
+  </si>
 </sst>
 </file>
 
@@ -478,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -510,6 +525,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,11 +1170,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3586DD2A-CF47-4634-8593-F7E9BCE1A862}">
-  <dimension ref="A1:R364"/>
+  <dimension ref="A1:R367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C281" sqref="C281"/>
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G360" sqref="G360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13869,26 +13885,26 @@
         <v>6</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="D317" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E317" s="10">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="F317" s="10">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G317" s="10">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H317" s="10">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="I317" s="10"/>
       <c r="J317" s="10">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K317" s="10">
         <v>1</v>
@@ -13896,447 +13912,451 @@
       <c r="L317" s="10"/>
       <c r="M317" s="4">
         <f>J317*K317*E317</f>
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="N317" s="4">
         <f>J317*K317*F317</f>
-        <v>24.8</v>
+        <v>9</v>
       </c>
       <c r="O317" s="4">
         <f>J317*K317*G317</f>
-        <v>2.8800000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="P317" s="5">
         <f>J317*K317*H317</f>
-        <v>0.8</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q317" s="11"/>
       <c r="R317" s="18"/>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A318" s="3"/>
+      <c r="A318" s="6"/>
       <c r="B318" s="4"/>
-      <c r="C318" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D318" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E318" s="10">
-        <v>45</v>
-      </c>
-      <c r="F318" s="10">
-        <v>1</v>
-      </c>
-      <c r="G318" s="10">
-        <v>3</v>
-      </c>
-      <c r="H318" s="10">
-        <v>3</v>
-      </c>
-      <c r="I318" s="10"/>
-      <c r="J318" s="10">
-        <v>1</v>
-      </c>
-      <c r="K318" s="10">
-        <v>1</v>
-      </c>
-      <c r="L318" s="10"/>
+      <c r="C318" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D318" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E318" s="4">
+        <v>60</v>
+      </c>
+      <c r="F318" s="4">
+        <v>9</v>
+      </c>
+      <c r="G318" s="4">
+        <v>1</v>
+      </c>
+      <c r="H318" s="4">
+        <v>5</v>
+      </c>
+      <c r="I318" s="4"/>
+      <c r="J318" s="4">
+        <v>1</v>
+      </c>
+      <c r="K318" s="4">
+        <v>1</v>
+      </c>
+      <c r="L318" s="4"/>
       <c r="M318" s="4">
         <f t="shared" ref="M318" si="377">J318*K318*E318</f>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N318" s="4">
         <f t="shared" ref="N318" si="378">J318*K318*F318</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O318" s="4">
         <f t="shared" ref="O318" si="379">J318*K318*G318</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P318" s="5">
         <f t="shared" ref="P318" si="380">J318*K318*H318</f>
-        <v>3</v>
-      </c>
-      <c r="Q318" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="Q318" s="11">
+        <f t="shared" ref="Q318" si="381">F318/H318</f>
+        <v>1.8</v>
+      </c>
+      <c r="R318" s="18">
+        <f t="shared" ref="R318" si="382">E318/F318</f>
+        <v>6.666666666666667</v>
+      </c>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A319" s="6"/>
+      <c r="A319" s="3"/>
       <c r="B319" s="4"/>
       <c r="C319" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D319" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E319" s="10">
+        <v>70</v>
+      </c>
+      <c r="F319" s="10">
+        <v>5</v>
+      </c>
+      <c r="G319" s="10">
+        <v>5</v>
+      </c>
+      <c r="H319" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I319" s="10"/>
+      <c r="J319" s="10">
+        <v>1</v>
+      </c>
+      <c r="K319" s="10">
+        <v>1</v>
+      </c>
+      <c r="L319" s="10"/>
+      <c r="M319" s="4">
+        <f t="shared" ref="M319" si="383">J319*K319*E319</f>
+        <v>70</v>
+      </c>
+      <c r="N319" s="4">
+        <f t="shared" ref="N319" si="384">J319*K319*F319</f>
+        <v>5</v>
+      </c>
+      <c r="O319" s="4">
+        <f t="shared" ref="O319" si="385">J319*K319*G319</f>
+        <v>5</v>
+      </c>
+      <c r="P319" s="5">
+        <f t="shared" ref="P319" si="386">J319*K319*H319</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q319" s="11"/>
+    </row>
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A320" s="6"/>
+      <c r="B320" s="4"/>
+      <c r="C320" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D320" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E320" s="10">
         <v>60</v>
       </c>
-      <c r="F319" s="10">
+      <c r="F320" s="10">
         <v>4</v>
       </c>
-      <c r="G319" s="10">
+      <c r="G320" s="10">
         <v>0.01</v>
       </c>
-      <c r="H319" s="10">
+      <c r="H320" s="10">
         <v>13</v>
-      </c>
-      <c r="I319" s="4"/>
-      <c r="J319" s="10">
-        <v>2</v>
-      </c>
-      <c r="K319" s="10">
-        <v>1</v>
-      </c>
-      <c r="L319" s="4"/>
-      <c r="M319" s="10">
-        <f t="shared" ref="M319:M320" si="381">J319*K319*E319</f>
-        <v>120</v>
-      </c>
-      <c r="N319" s="10">
-        <f t="shared" ref="N319:N320" si="382">J319*K319*F319</f>
-        <v>8</v>
-      </c>
-      <c r="O319" s="10">
-        <f t="shared" ref="O319:O320" si="383">J319*K319*G319</f>
-        <v>0.02</v>
-      </c>
-      <c r="P319" s="5">
-        <f t="shared" ref="P319:P320" si="384">J319*K319*H319</f>
-        <v>26</v>
-      </c>
-      <c r="Q319" s="16"/>
-      <c r="R319" s="18"/>
-    </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A320" s="3"/>
-      <c r="B320" s="4">
-        <v>7</v>
-      </c>
-      <c r="C320" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D320" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E320" s="10">
-        <v>100</v>
-      </c>
-      <c r="F320" s="10">
-        <v>2</v>
-      </c>
-      <c r="G320" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="H320" s="10">
-        <v>17</v>
       </c>
       <c r="I320" s="4"/>
       <c r="J320" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K320" s="10">
         <v>1</v>
       </c>
       <c r="L320" s="4"/>
       <c r="M320" s="10">
-        <f t="shared" si="381"/>
+        <f t="shared" ref="M320:M321" si="387">J320*K320*E320</f>
+        <v>120</v>
+      </c>
+      <c r="N320" s="10">
+        <f t="shared" ref="N320:N321" si="388">J320*K320*F320</f>
+        <v>8</v>
+      </c>
+      <c r="O320" s="10">
+        <f t="shared" ref="O320:O321" si="389">J320*K320*G320</f>
+        <v>0.02</v>
+      </c>
+      <c r="P320" s="5">
+        <f t="shared" ref="P320:P321" si="390">J320*K320*H320</f>
+        <v>26</v>
+      </c>
+      <c r="Q320" s="16"/>
+      <c r="R320" s="18"/>
+    </row>
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A321" s="3"/>
+      <c r="B321" s="4">
+        <v>7</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E321" s="10">
         <v>100</v>
       </c>
-      <c r="N320" s="10">
-        <f t="shared" si="382"/>
+      <c r="F321" s="10">
         <v>2</v>
       </c>
-      <c r="O320" s="10">
-        <f t="shared" si="383"/>
+      <c r="G321" s="10">
         <v>2.5</v>
       </c>
-      <c r="P320" s="5">
-        <f t="shared" si="384"/>
+      <c r="H321" s="10">
         <v>17</v>
       </c>
-      <c r="Q320" s="11"/>
-    </row>
-    <row r="321" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="7"/>
-      <c r="B321" s="8"/>
-      <c r="C321" s="13" t="s">
+      <c r="I321" s="4"/>
+      <c r="J321" s="10">
+        <v>1</v>
+      </c>
+      <c r="K321" s="10">
+        <v>1</v>
+      </c>
+      <c r="L321" s="4"/>
+      <c r="M321" s="10">
+        <f t="shared" si="387"/>
+        <v>100</v>
+      </c>
+      <c r="N321" s="10">
+        <f t="shared" si="388"/>
+        <v>2</v>
+      </c>
+      <c r="O321" s="10">
+        <f t="shared" si="389"/>
+        <v>2.5</v>
+      </c>
+      <c r="P321" s="5">
+        <f t="shared" si="390"/>
+        <v>17</v>
+      </c>
+      <c r="Q321" s="11"/>
+    </row>
+    <row r="322" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="7"/>
+      <c r="B322" s="8"/>
+      <c r="C322" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D321" s="13" t="s">
+      <c r="D322" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E321" s="13">
+      <c r="E322" s="13">
         <v>80</v>
       </c>
-      <c r="F321" s="13">
+      <c r="F322" s="13">
         <v>12</v>
       </c>
-      <c r="G321" s="13">
+      <c r="G322" s="13">
         <v>1.5</v>
       </c>
-      <c r="H321" s="13">
+      <c r="H322" s="13">
         <v>5</v>
       </c>
-      <c r="I321" s="8"/>
-      <c r="J321" s="13">
-        <v>1</v>
-      </c>
-      <c r="K321" s="13">
-        <v>1</v>
-      </c>
-      <c r="L321" s="8"/>
-      <c r="M321" s="13">
-        <f t="shared" ref="M321" si="385">J321*K321*E321</f>
+      <c r="I322" s="8"/>
+      <c r="J322" s="13">
+        <v>1</v>
+      </c>
+      <c r="K322" s="13">
+        <v>1</v>
+      </c>
+      <c r="L322" s="8"/>
+      <c r="M322" s="13">
+        <f t="shared" ref="M322" si="391">J322*K322*E322</f>
         <v>80</v>
       </c>
-      <c r="N321" s="13">
-        <f t="shared" ref="N321" si="386">J321*K321*F321</f>
+      <c r="N322" s="13">
+        <f t="shared" ref="N322" si="392">J322*K322*F322</f>
         <v>12</v>
       </c>
-      <c r="O321" s="13">
-        <f t="shared" ref="O321" si="387">J321*K321*G321</f>
+      <c r="O322" s="13">
+        <f t="shared" ref="O322" si="393">J322*K322*G322</f>
         <v>1.5</v>
       </c>
-      <c r="P321" s="23">
-        <f t="shared" ref="P321" si="388">J321*K321*H321</f>
+      <c r="P322" s="23">
+        <f t="shared" ref="P322" si="394">J322*K322*H322</f>
         <v>5</v>
       </c>
-      <c r="Q321" s="16"/>
-      <c r="R321" s="18"/>
-    </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A322" s="4"/>
-      <c r="B322" s="4"/>
-      <c r="C322" s="10" t="s">
+      <c r="Q322" s="16"/>
+      <c r="R322" s="18"/>
+    </row>
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A323" s="4"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D322" s="4"/>
-      <c r="E322" s="4"/>
-      <c r="F322" s="4"/>
-      <c r="G322" s="4"/>
-      <c r="H322" s="4"/>
-      <c r="I322" s="4"/>
-      <c r="J322" s="4"/>
-      <c r="K322" s="4"/>
-      <c r="L322" s="4"/>
-      <c r="M322" s="16">
-        <f>SUM(M305:M321)</f>
-        <v>2016.4</v>
-      </c>
-      <c r="N322" s="16">
-        <f>SUM(N305:N321)</f>
-        <v>164.1</v>
-      </c>
-      <c r="O322" s="16">
-        <f>SUM(O305:O321)</f>
-        <v>46.080000000000013</v>
-      </c>
-      <c r="P322" s="16">
-        <f>SUM(P305:P321)</f>
-        <v>242.6</v>
-      </c>
-      <c r="Q322" s="12">
-        <f>N322/(O322+P322)</f>
-        <v>0.56844949424968816</v>
-      </c>
-    </row>
-    <row r="324" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A325" s="19">
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4"/>
+      <c r="G323" s="4"/>
+      <c r="H323" s="4"/>
+      <c r="I323" s="4"/>
+      <c r="J323" s="4"/>
+      <c r="K323" s="4"/>
+      <c r="L323" s="4"/>
+      <c r="M323" s="16">
+        <f>SUM(M305:M322)</f>
+        <v>2010.4</v>
+      </c>
+      <c r="N323" s="16">
+        <f>SUM(N305:N322)</f>
+        <v>161.30000000000001</v>
+      </c>
+      <c r="O323" s="16">
+        <f>SUM(O305:O322)</f>
+        <v>46.550000000000011</v>
+      </c>
+      <c r="P323" s="16">
+        <f>SUM(P305:P322)</f>
+        <v>243.81499999999997</v>
+      </c>
+      <c r="Q323" s="12">
+        <f>N323/(O323+P323)</f>
+        <v>0.55550772303824503</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A326" s="19">
         <v>43188</v>
       </c>
-      <c r="B325" s="2"/>
-      <c r="C325" s="17"/>
-      <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
-      <c r="F325" s="2"/>
-      <c r="G325" s="2"/>
-      <c r="H325" s="2"/>
-      <c r="I325" s="2"/>
-      <c r="J325" s="2"/>
-      <c r="K325" s="2"/>
-      <c r="L325" s="2"/>
-      <c r="M325" s="2"/>
-      <c r="N325" s="2"/>
-      <c r="O325" s="2"/>
-      <c r="P325" s="15"/>
-      <c r="Q325" s="12"/>
-    </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A326" s="3"/>
-      <c r="B326" s="4">
-        <v>1</v>
-      </c>
-      <c r="C326" s="10" t="s">
+      <c r="B326" s="2"/>
+      <c r="C326" s="17"/>
+      <c r="D326" s="2"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
+      <c r="G326" s="2"/>
+      <c r="H326" s="2"/>
+      <c r="I326" s="2"/>
+      <c r="J326" s="2"/>
+      <c r="K326" s="2"/>
+      <c r="L326" s="2"/>
+      <c r="M326" s="2"/>
+      <c r="N326" s="2"/>
+      <c r="O326" s="2"/>
+      <c r="P326" s="15"/>
+      <c r="Q326" s="12"/>
+    </row>
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A327" s="3"/>
+      <c r="B327" s="4">
+        <v>1</v>
+      </c>
+      <c r="C327" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D326" s="4" t="s">
+      <c r="D327" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E326" s="4">
+      <c r="E327" s="4">
         <v>880</v>
       </c>
-      <c r="F326" s="10">
+      <c r="F327" s="10">
         <v>60</v>
       </c>
-      <c r="G326" s="10">
+      <c r="G327" s="10">
         <v>9</v>
       </c>
-      <c r="H326" s="4">
+      <c r="H327" s="4">
         <v>140</v>
-      </c>
-      <c r="I326" s="4"/>
-      <c r="J326" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="K326" s="4">
-        <v>1</v>
-      </c>
-      <c r="L326" s="4"/>
-      <c r="M326" s="4">
-        <f t="shared" ref="M326:M327" si="389">J326*K326*E326</f>
-        <v>290.40000000000003</v>
-      </c>
-      <c r="N326" s="4">
-        <f t="shared" ref="N326:N327" si="390">J326*K326*F326</f>
-        <v>19.8</v>
-      </c>
-      <c r="O326" s="4">
-        <f t="shared" ref="O326:O327" si="391">J326*K326*G326</f>
-        <v>2.97</v>
-      </c>
-      <c r="P326" s="5">
-        <f t="shared" ref="P326:P327" si="392">J326*K326*H326</f>
-        <v>46.2</v>
-      </c>
-      <c r="Q326" s="11">
-        <f t="shared" ref="Q326" si="393">F326/H326</f>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A327" s="22"/>
-      <c r="B327" s="4"/>
-      <c r="C327" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D327" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E327" s="4">
-        <v>190</v>
-      </c>
-      <c r="F327" s="4">
-        <v>3</v>
-      </c>
-      <c r="G327" s="4">
-        <v>7</v>
-      </c>
-      <c r="H327" s="4">
-        <v>29</v>
       </c>
       <c r="I327" s="4"/>
       <c r="J327" s="4">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="K327" s="4">
         <v>1</v>
       </c>
       <c r="L327" s="4"/>
       <c r="M327" s="4">
-        <f t="shared" si="389"/>
-        <v>95</v>
+        <f t="shared" ref="M327:M328" si="395">J327*K327*E327</f>
+        <v>290.40000000000003</v>
       </c>
       <c r="N327" s="4">
-        <f t="shared" si="390"/>
-        <v>1.5</v>
+        <f t="shared" ref="N327:N328" si="396">J327*K327*F327</f>
+        <v>19.8</v>
       </c>
       <c r="O327" s="4">
-        <f t="shared" si="391"/>
-        <v>3.5</v>
+        <f t="shared" ref="O327:O328" si="397">J327*K327*G327</f>
+        <v>2.97</v>
       </c>
       <c r="P327" s="5">
-        <f t="shared" si="392"/>
-        <v>14.5</v>
-      </c>
-      <c r="Q327" s="16">
-        <f>F327/H327</f>
-        <v>0.10344827586206896</v>
+        <f t="shared" ref="P327:P328" si="398">J327*K327*H327</f>
+        <v>46.2</v>
+      </c>
+      <c r="Q327" s="11">
+        <f t="shared" ref="Q327" si="399">F327/H327</f>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="22"/>
-      <c r="B328" s="4">
-        <v>2</v>
-      </c>
-      <c r="C328" s="10" t="s">
-        <v>60</v>
+      <c r="B328" s="4"/>
+      <c r="C328" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E328" s="4">
-        <v>120</v>
-      </c>
-      <c r="F328" s="10">
-        <v>24</v>
-      </c>
-      <c r="G328" s="10">
-        <v>1.5</v>
+        <v>190</v>
+      </c>
+      <c r="F328" s="4">
+        <v>3</v>
+      </c>
+      <c r="G328" s="4">
+        <v>7</v>
       </c>
       <c r="H328" s="4">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I328" s="4"/>
       <c r="J328" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K328" s="4">
         <v>1</v>
       </c>
       <c r="L328" s="4"/>
       <c r="M328" s="4">
-        <f>J328*K328*E328</f>
-        <v>120</v>
+        <f t="shared" si="395"/>
+        <v>95</v>
       </c>
       <c r="N328" s="4">
-        <f>J328*K328*F328</f>
-        <v>24</v>
+        <f t="shared" si="396"/>
+        <v>1.5</v>
       </c>
       <c r="O328" s="4">
-        <f>J328*K328*G328</f>
-        <v>1.5</v>
+        <f t="shared" si="397"/>
+        <v>3.5</v>
       </c>
       <c r="P328" s="5">
-        <f>J328*K328*H328</f>
-        <v>3</v>
+        <f t="shared" si="398"/>
+        <v>14.5</v>
       </c>
       <c r="Q328" s="16">
         <f>F328/H328</f>
-        <v>8</v>
+        <v>0.10344827586206896</v>
       </c>
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A329" s="6"/>
-      <c r="B329" s="4"/>
-      <c r="C329" s="4" t="s">
-        <v>46</v>
+      <c r="A329" s="22"/>
+      <c r="B329" s="4">
+        <v>2</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E329" s="4">
-        <v>105</v>
-      </c>
-      <c r="F329" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="G329" s="4">
-        <v>0.4</v>
+        <v>120</v>
+      </c>
+      <c r="F329" s="10">
+        <v>24</v>
+      </c>
+      <c r="G329" s="10">
+        <v>1.5</v>
       </c>
       <c r="H329" s="4">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I329" s="4"/>
       <c r="J329" s="4">
@@ -14347,98 +14367,98 @@
       </c>
       <c r="L329" s="4"/>
       <c r="M329" s="4">
-        <f t="shared" ref="M329:M337" si="394">J329*K329*E329</f>
+        <f>J329*K329*E329</f>
+        <v>120</v>
+      </c>
+      <c r="N329" s="4">
+        <f>J329*K329*F329</f>
+        <v>24</v>
+      </c>
+      <c r="O329" s="4">
+        <f>J329*K329*G329</f>
+        <v>1.5</v>
+      </c>
+      <c r="P329" s="5">
+        <f>J329*K329*H329</f>
+        <v>3</v>
+      </c>
+      <c r="Q329" s="16">
+        <f>F329/H329</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A330" s="6"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D330" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E330" s="4">
         <v>105</v>
       </c>
-      <c r="N329" s="4">
-        <f t="shared" ref="N329:N337" si="395">J329*K329*F329</f>
+      <c r="F330" s="4">
         <v>2.7</v>
       </c>
-      <c r="O329" s="4">
-        <f t="shared" ref="O329:O337" si="396">J329*K329*G329</f>
+      <c r="G330" s="4">
         <v>0.4</v>
       </c>
-      <c r="P329" s="5">
-        <f t="shared" ref="P329:P337" si="397">J329*K329*H329</f>
+      <c r="H330" s="4">
         <v>27</v>
       </c>
-      <c r="Q329" s="11">
-        <f t="shared" ref="Q329:Q330" si="398">F329/H329</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A330" s="22"/>
-      <c r="B330" s="4">
-        <v>3</v>
-      </c>
-      <c r="C330" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D330" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E330" s="4">
-        <v>90</v>
-      </c>
-      <c r="F330" s="4">
-        <v>8</v>
-      </c>
-      <c r="G330" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H330" s="10">
-        <v>13</v>
-      </c>
       <c r="I330" s="4"/>
-      <c r="J330" s="10">
-        <v>1</v>
-      </c>
-      <c r="K330" s="10">
+      <c r="J330" s="4">
+        <v>1</v>
+      </c>
+      <c r="K330" s="4">
         <v>1</v>
       </c>
       <c r="L330" s="4"/>
       <c r="M330" s="4">
-        <f t="shared" si="394"/>
-        <v>90</v>
+        <f t="shared" ref="M330:M339" si="400">J330*K330*E330</f>
+        <v>105</v>
       </c>
       <c r="N330" s="4">
-        <f t="shared" si="395"/>
-        <v>8</v>
+        <f t="shared" ref="N330:N339" si="401">J330*K330*F330</f>
+        <v>2.7</v>
       </c>
       <c r="O330" s="4">
-        <f t="shared" si="396"/>
-        <v>0.01</v>
+        <f t="shared" ref="O330:O339" si="402">J330*K330*G330</f>
+        <v>0.4</v>
       </c>
       <c r="P330" s="5">
-        <f t="shared" si="397"/>
-        <v>13</v>
-      </c>
-      <c r="Q330" s="16">
-        <f t="shared" si="398"/>
-        <v>0.61538461538461542</v>
+        <f t="shared" ref="P330:P339" si="403">J330*K330*H330</f>
+        <v>27</v>
+      </c>
+      <c r="Q330" s="11">
+        <f t="shared" ref="Q330:Q331" si="404">F330/H330</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="22"/>
-      <c r="B331" s="4"/>
+      <c r="B331" s="4">
+        <v>3</v>
+      </c>
       <c r="C331" s="10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E331" s="4">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F331" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G331" s="4">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="H331" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I331" s="4"/>
       <c r="J331" s="10">
@@ -14449,390 +14469,395 @@
       </c>
       <c r="L331" s="4"/>
       <c r="M331" s="4">
-        <f t="shared" si="394"/>
-        <v>100</v>
+        <f t="shared" si="400"/>
+        <v>90</v>
       </c>
       <c r="N331" s="4">
-        <f t="shared" si="395"/>
-        <v>4</v>
+        <f t="shared" si="401"/>
+        <v>8</v>
       </c>
       <c r="O331" s="4">
-        <f t="shared" si="396"/>
-        <v>2</v>
+        <f t="shared" si="402"/>
+        <v>0.01</v>
       </c>
       <c r="P331" s="5">
-        <f t="shared" si="397"/>
-        <v>15</v>
-      </c>
-      <c r="Q331" s="16"/>
+        <f t="shared" si="403"/>
+        <v>13</v>
+      </c>
+      <c r="Q331" s="16">
+        <f t="shared" si="404"/>
+        <v>0.61538461538461542</v>
+      </c>
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="22"/>
       <c r="B332" s="4"/>
-      <c r="C332" s="4" t="s">
-        <v>30</v>
+      <c r="C332" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E332" s="4">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="F332" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G332" s="4">
-        <v>7</v>
-      </c>
-      <c r="H332" s="4">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="H332" s="10">
+        <v>15</v>
       </c>
       <c r="I332" s="4"/>
-      <c r="J332" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K332" s="4">
+      <c r="J332" s="10">
+        <v>1</v>
+      </c>
+      <c r="K332" s="10">
         <v>1</v>
       </c>
       <c r="L332" s="4"/>
       <c r="M332" s="4">
-        <f t="shared" si="394"/>
-        <v>95</v>
+        <f t="shared" si="400"/>
+        <v>100</v>
       </c>
       <c r="N332" s="4">
-        <f t="shared" si="395"/>
-        <v>1.5</v>
+        <f t="shared" si="401"/>
+        <v>4</v>
       </c>
       <c r="O332" s="4">
-        <f t="shared" si="396"/>
-        <v>3.5</v>
+        <f t="shared" si="402"/>
+        <v>2</v>
       </c>
       <c r="P332" s="5">
-        <f t="shared" si="397"/>
-        <v>14.5</v>
-      </c>
-      <c r="Q332" s="16">
-        <f>F332/H332</f>
-        <v>0.10344827586206896</v>
-      </c>
+        <f t="shared" si="403"/>
+        <v>15</v>
+      </c>
+      <c r="Q332" s="16"/>
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A333" s="3"/>
+      <c r="A333" s="22"/>
       <c r="B333" s="4"/>
-      <c r="C333" s="10" t="s">
-        <v>52</v>
+      <c r="C333" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E333" s="4">
-        <v>78</v>
-      </c>
-      <c r="F333" s="10">
-        <v>6</v>
-      </c>
-      <c r="G333" s="10">
-        <v>5</v>
+        <v>190</v>
+      </c>
+      <c r="F333" s="4">
+        <v>3</v>
+      </c>
+      <c r="G333" s="4">
+        <v>7</v>
       </c>
       <c r="H333" s="4">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I333" s="4"/>
       <c r="J333" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K333" s="4">
         <v>1</v>
       </c>
       <c r="L333" s="4"/>
       <c r="M333" s="4">
-        <f t="shared" si="394"/>
-        <v>78</v>
+        <f t="shared" si="400"/>
+        <v>95</v>
       </c>
       <c r="N333" s="4">
-        <f t="shared" si="395"/>
-        <v>6</v>
+        <f t="shared" si="401"/>
+        <v>1.5</v>
       </c>
       <c r="O333" s="4">
-        <f t="shared" si="396"/>
-        <v>5</v>
+        <f t="shared" si="402"/>
+        <v>3.5</v>
       </c>
       <c r="P333" s="5">
-        <f t="shared" si="397"/>
-        <v>1</v>
-      </c>
-      <c r="Q333" s="11">
-        <f t="shared" ref="Q333:Q334" si="399">F333/H333</f>
-        <v>6</v>
+        <f t="shared" si="403"/>
+        <v>14.5</v>
+      </c>
+      <c r="Q333" s="16">
+        <f>F333/H333</f>
+        <v>0.10344827586206896</v>
       </c>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
       <c r="B334" s="4"/>
       <c r="C334" s="10" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="D334" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E334" s="4">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F334" s="10">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="G334" s="10">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="H334" s="4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I334" s="4"/>
       <c r="J334" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K334" s="4">
         <v>1</v>
       </c>
       <c r="L334" s="4"/>
       <c r="M334" s="4">
-        <f t="shared" si="394"/>
-        <v>51</v>
+        <f t="shared" si="400"/>
+        <v>78</v>
       </c>
       <c r="N334" s="4">
-        <f t="shared" si="395"/>
-        <v>10.8</v>
+        <f t="shared" si="401"/>
+        <v>6</v>
       </c>
       <c r="O334" s="4">
-        <f t="shared" si="396"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="402"/>
+        <v>5</v>
       </c>
       <c r="P334" s="5">
-        <f t="shared" si="397"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="403"/>
+        <v>1</v>
       </c>
       <c r="Q334" s="11">
-        <f t="shared" si="399"/>
-        <v>18</v>
+        <f t="shared" ref="Q334:Q337" si="405">F334/H334</f>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
-      <c r="B335" s="4">
+      <c r="B335" s="4"/>
+      <c r="C335" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E335" s="4">
+        <v>17</v>
+      </c>
+      <c r="F335" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G335" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H335" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I335" s="4"/>
+      <c r="J335" s="4">
+        <v>3</v>
+      </c>
+      <c r="K335" s="4">
+        <v>1</v>
+      </c>
+      <c r="L335" s="4"/>
+      <c r="M335" s="4">
+        <f t="shared" si="400"/>
+        <v>51</v>
+      </c>
+      <c r="N335" s="4">
+        <f t="shared" si="401"/>
+        <v>10.8</v>
+      </c>
+      <c r="O335" s="4">
+        <f t="shared" si="402"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="P335" s="5">
+        <f t="shared" si="403"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Q335" s="11">
+        <f t="shared" si="405"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A336" s="3"/>
+      <c r="B336" s="4">
         <v>4</v>
       </c>
-      <c r="C335" t="s">
-        <v>98</v>
-      </c>
-      <c r="D335" t="s">
-        <v>93</v>
-      </c>
-      <c r="E335" s="18">
-        <v>300</v>
-      </c>
-      <c r="F335" s="18">
-        <v>34</v>
-      </c>
-      <c r="G335" s="18">
+      <c r="C336" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D336" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E336" s="10">
+        <v>228</v>
+      </c>
+      <c r="F336" s="10">
+        <v>7</v>
+      </c>
+      <c r="G336" s="10">
+        <v>3</v>
+      </c>
+      <c r="H336" s="10">
+        <v>42</v>
+      </c>
+      <c r="I336" s="4"/>
+      <c r="J336" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K336" s="10">
+        <v>1</v>
+      </c>
+      <c r="L336" s="4"/>
+      <c r="M336" s="10">
+        <f t="shared" si="400"/>
+        <v>114</v>
+      </c>
+      <c r="N336" s="10">
+        <f t="shared" si="401"/>
+        <v>3.5</v>
+      </c>
+      <c r="O336" s="10">
+        <f t="shared" si="402"/>
+        <v>1.5</v>
+      </c>
+      <c r="P336" s="5">
+        <f t="shared" si="403"/>
+        <v>21</v>
+      </c>
+      <c r="Q336" s="11">
+        <f t="shared" si="405"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A337" s="6"/>
+      <c r="B337" s="4"/>
+      <c r="C337" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D337" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E337" s="10">
+        <v>40</v>
+      </c>
+      <c r="F337" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G337" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="H337" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I337" s="4"/>
+      <c r="J337" s="10">
+        <v>1</v>
+      </c>
+      <c r="K337" s="10">
+        <v>1</v>
+      </c>
+      <c r="L337" s="4"/>
+      <c r="M337" s="10">
+        <f t="shared" si="400"/>
+        <v>40</v>
+      </c>
+      <c r="N337" s="10">
+        <f t="shared" si="401"/>
+        <v>0.01</v>
+      </c>
+      <c r="O337" s="10">
+        <f t="shared" si="402"/>
+        <v>4.5</v>
+      </c>
+      <c r="P337" s="5">
+        <f t="shared" si="403"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q337" s="11">
+        <f t="shared" si="405"/>
+        <v>1</v>
+      </c>
+      <c r="R337" s="18"/>
+    </row>
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A338" s="3"/>
+      <c r="B338" s="4"/>
+      <c r="C338" t="s">
+        <v>109</v>
+      </c>
+      <c r="D338" t="s">
+        <v>110</v>
+      </c>
+      <c r="E338" s="27">
+        <v>400</v>
+      </c>
+      <c r="F338" s="27">
+        <v>21</v>
+      </c>
+      <c r="G338" s="27">
         <v>13</v>
       </c>
-      <c r="H335" s="18">
-        <v>11</v>
-      </c>
-      <c r="I335" s="4"/>
-      <c r="J335" s="26">
-        <v>1</v>
-      </c>
-      <c r="K335" s="26">
-        <v>1</v>
-      </c>
-      <c r="L335" s="4"/>
-      <c r="M335" s="10">
-        <f t="shared" si="394"/>
-        <v>300</v>
-      </c>
-      <c r="N335" s="10">
-        <f t="shared" si="395"/>
-        <v>34</v>
-      </c>
-      <c r="O335" s="10">
-        <f t="shared" si="396"/>
+      <c r="H338" s="27">
+        <v>46</v>
+      </c>
+      <c r="I338" s="4"/>
+      <c r="J338" s="26">
+        <v>1</v>
+      </c>
+      <c r="K338" s="26">
+        <v>1</v>
+      </c>
+      <c r="L338" s="4"/>
+      <c r="M338" s="10">
+        <f t="shared" si="400"/>
+        <v>400</v>
+      </c>
+      <c r="N338" s="10">
+        <f t="shared" si="401"/>
+        <v>21</v>
+      </c>
+      <c r="O338" s="10">
+        <f t="shared" si="402"/>
         <v>13</v>
       </c>
-      <c r="P335" s="5">
-        <f t="shared" si="397"/>
-        <v>11</v>
-      </c>
-      <c r="Q335" s="11"/>
-    </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A336" s="6"/>
-      <c r="B336" s="4"/>
-      <c r="C336" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D336" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E336" s="4">
-        <v>120</v>
-      </c>
-      <c r="F336" s="4">
-        <v>3</v>
-      </c>
-      <c r="G336" s="4">
-        <v>3</v>
-      </c>
-      <c r="H336" s="4">
-        <v>20</v>
-      </c>
-      <c r="I336" s="4"/>
-      <c r="J336" s="4">
-        <v>1</v>
-      </c>
-      <c r="K336" s="4">
-        <v>1</v>
-      </c>
-      <c r="L336" s="4"/>
-      <c r="M336" s="4">
-        <f t="shared" si="394"/>
-        <v>120</v>
-      </c>
-      <c r="N336" s="4">
-        <f t="shared" si="395"/>
-        <v>3</v>
-      </c>
-      <c r="O336" s="4">
-        <f t="shared" si="396"/>
-        <v>3</v>
-      </c>
-      <c r="P336" s="5">
-        <f t="shared" si="397"/>
-        <v>20</v>
-      </c>
-      <c r="Q336" s="11">
-        <f t="shared" ref="Q336" si="400">F336/H336</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A337" s="6"/>
-      <c r="B337" s="4">
+      <c r="P338" s="5">
+        <f t="shared" si="403"/>
+        <v>46</v>
+      </c>
+      <c r="Q338" s="11"/>
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A339" s="6"/>
+      <c r="B339" s="4">
         <v>5</v>
       </c>
-      <c r="C337" s="4" t="s">
+      <c r="C339" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D337" s="4" t="s">
+      <c r="D339" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E337" s="4">
+      <c r="E339" s="4">
         <v>95</v>
       </c>
-      <c r="F337" s="4">
-        <v>1</v>
-      </c>
-      <c r="G337" s="4">
-        <v>1</v>
-      </c>
-      <c r="H337" s="4">
+      <c r="F339" s="4">
+        <v>1</v>
+      </c>
+      <c r="G339" s="4">
+        <v>1</v>
+      </c>
+      <c r="H339" s="4">
         <v>25</v>
-      </c>
-      <c r="I337" s="10"/>
-      <c r="J337" s="10">
-        <v>1</v>
-      </c>
-      <c r="K337" s="10">
-        <v>1</v>
-      </c>
-      <c r="L337" s="10"/>
-      <c r="M337" s="4">
-        <f t="shared" si="394"/>
-        <v>95</v>
-      </c>
-      <c r="N337" s="4">
-        <f t="shared" si="395"/>
-        <v>1</v>
-      </c>
-      <c r="O337" s="4">
-        <f t="shared" si="396"/>
-        <v>1</v>
-      </c>
-      <c r="P337" s="5">
-        <f t="shared" si="397"/>
-        <v>25</v>
-      </c>
-      <c r="Q337" s="11"/>
-    </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A338" s="6"/>
-      <c r="B338" s="4">
-        <v>6</v>
-      </c>
-      <c r="C338" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D338" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E338" s="10">
-        <v>165</v>
-      </c>
-      <c r="F338" s="10">
-        <v>31</v>
-      </c>
-      <c r="G338" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="H338" s="10">
-        <v>1</v>
-      </c>
-      <c r="I338" s="10"/>
-      <c r="J338" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="K338" s="10">
-        <v>1</v>
-      </c>
-      <c r="L338" s="10"/>
-      <c r="M338" s="4">
-        <f>J338*K338*E338</f>
-        <v>132</v>
-      </c>
-      <c r="N338" s="4">
-        <f>J338*K338*F338</f>
-        <v>24.8</v>
-      </c>
-      <c r="O338" s="4">
-        <f>J338*K338*G338</f>
-        <v>2.8800000000000003</v>
-      </c>
-      <c r="P338" s="5">
-        <f>J338*K338*H338</f>
-        <v>0.8</v>
-      </c>
-      <c r="Q338" s="11"/>
-    </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A339" s="3"/>
-      <c r="B339" s="4"/>
-      <c r="C339" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D339" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E339" s="10">
-        <v>45</v>
-      </c>
-      <c r="F339" s="10">
-        <v>1</v>
-      </c>
-      <c r="G339" s="10">
-        <v>3</v>
-      </c>
-      <c r="H339" s="10">
-        <v>3</v>
       </c>
       <c r="I339" s="10"/>
       <c r="J339" s="10">
@@ -14843,1098 +14868,1241 @@
       </c>
       <c r="L339" s="10"/>
       <c r="M339" s="4">
-        <f t="shared" ref="M339:M342" si="401">J339*K339*E339</f>
+        <f t="shared" si="400"/>
+        <v>95</v>
+      </c>
+      <c r="N339" s="4">
+        <f t="shared" si="401"/>
+        <v>1</v>
+      </c>
+      <c r="O339" s="4">
+        <f t="shared" si="402"/>
+        <v>1</v>
+      </c>
+      <c r="P339" s="5">
+        <f t="shared" si="403"/>
+        <v>25</v>
+      </c>
+      <c r="Q339" s="11"/>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A340" s="6"/>
+      <c r="B340" s="4">
+        <v>6</v>
+      </c>
+      <c r="C340" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D340" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E340" s="10">
+        <v>165</v>
+      </c>
+      <c r="F340" s="10">
+        <v>31</v>
+      </c>
+      <c r="G340" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="H340" s="10">
+        <v>1</v>
+      </c>
+      <c r="I340" s="10"/>
+      <c r="J340" s="10">
+        <v>1</v>
+      </c>
+      <c r="K340" s="10">
+        <v>1</v>
+      </c>
+      <c r="L340" s="10"/>
+      <c r="M340" s="4">
+        <f>J340*K340*E340</f>
+        <v>165</v>
+      </c>
+      <c r="N340" s="4">
+        <f>J340*K340*F340</f>
+        <v>31</v>
+      </c>
+      <c r="O340" s="4">
+        <f>J340*K340*G340</f>
+        <v>3.6</v>
+      </c>
+      <c r="P340" s="5">
+        <f>J340*K340*H340</f>
+        <v>1</v>
+      </c>
+      <c r="Q340" s="11"/>
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A341" s="3"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D341" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E341" s="10">
         <v>45</v>
       </c>
-      <c r="N339" s="4">
-        <f t="shared" ref="N339:N342" si="402">J339*K339*F339</f>
-        <v>1</v>
-      </c>
-      <c r="O339" s="4">
-        <f t="shared" ref="O339:O342" si="403">J339*K339*G339</f>
-        <v>3</v>
-      </c>
-      <c r="P339" s="5">
-        <f t="shared" ref="P339:P342" si="404">J339*K339*H339</f>
-        <v>3</v>
-      </c>
-      <c r="Q339" s="11"/>
-    </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A340" s="6"/>
-      <c r="B340" s="4"/>
-      <c r="C340" s="10" t="s">
+      <c r="F341" s="10">
+        <v>1</v>
+      </c>
+      <c r="G341" s="10">
+        <v>3</v>
+      </c>
+      <c r="H341" s="10">
+        <v>3</v>
+      </c>
+      <c r="I341" s="10"/>
+      <c r="J341" s="10">
+        <v>1</v>
+      </c>
+      <c r="K341" s="10">
+        <v>1</v>
+      </c>
+      <c r="L341" s="10"/>
+      <c r="M341" s="4">
+        <f t="shared" ref="M341:M344" si="406">J341*K341*E341</f>
+        <v>45</v>
+      </c>
+      <c r="N341" s="4">
+        <f t="shared" ref="N341:N344" si="407">J341*K341*F341</f>
+        <v>1</v>
+      </c>
+      <c r="O341" s="4">
+        <f t="shared" ref="O341:O344" si="408">J341*K341*G341</f>
+        <v>3</v>
+      </c>
+      <c r="P341" s="5">
+        <f t="shared" ref="P341:P344" si="409">J341*K341*H341</f>
+        <v>3</v>
+      </c>
+      <c r="Q341" s="11"/>
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A342" s="6"/>
+      <c r="B342" s="4"/>
+      <c r="C342" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D340" s="10" t="s">
+      <c r="D342" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E340" s="10">
+      <c r="E342" s="10">
         <v>60</v>
       </c>
-      <c r="F340" s="10">
+      <c r="F342" s="10">
         <v>4</v>
       </c>
-      <c r="G340" s="10">
+      <c r="G342" s="10">
         <v>0.01</v>
       </c>
-      <c r="H340" s="10">
+      <c r="H342" s="10">
         <v>13</v>
       </c>
-      <c r="I340" s="4"/>
-      <c r="J340" s="10">
+      <c r="I342" s="4"/>
+      <c r="J342" s="10">
         <v>2</v>
       </c>
-      <c r="K340" s="10">
-        <v>1</v>
-      </c>
-      <c r="L340" s="4"/>
-      <c r="M340" s="10">
-        <f t="shared" si="401"/>
+      <c r="K342" s="10">
+        <v>1</v>
+      </c>
+      <c r="L342" s="4"/>
+      <c r="M342" s="10">
+        <f t="shared" si="406"/>
         <v>120</v>
       </c>
-      <c r="N340" s="10">
-        <f t="shared" si="402"/>
+      <c r="N342" s="10">
+        <f t="shared" si="407"/>
         <v>8</v>
       </c>
-      <c r="O340" s="10">
-        <f t="shared" si="403"/>
+      <c r="O342" s="10">
+        <f t="shared" si="408"/>
         <v>0.02</v>
       </c>
-      <c r="P340" s="5">
-        <f t="shared" si="404"/>
+      <c r="P342" s="5">
+        <f t="shared" si="409"/>
         <v>26</v>
       </c>
-      <c r="Q340" s="16"/>
-    </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A341" s="3"/>
-      <c r="B341" s="4">
+      <c r="Q342" s="16"/>
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A343" s="3"/>
+      <c r="B343" s="4">
         <v>7</v>
       </c>
-      <c r="C341" s="10" t="s">
+      <c r="C343" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D341" s="4" t="s">
+      <c r="D343" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E341" s="10">
+      <c r="E343" s="10">
         <v>100</v>
       </c>
-      <c r="F341" s="10">
+      <c r="F343" s="10">
         <v>2</v>
       </c>
-      <c r="G341" s="10">
+      <c r="G343" s="10">
         <v>2.5</v>
       </c>
-      <c r="H341" s="10">
+      <c r="H343" s="10">
         <v>17</v>
       </c>
-      <c r="I341" s="4"/>
-      <c r="J341" s="10">
-        <v>1</v>
-      </c>
-      <c r="K341" s="10">
-        <v>1</v>
-      </c>
-      <c r="L341" s="4"/>
-      <c r="M341" s="10">
-        <f t="shared" si="401"/>
+      <c r="I343" s="4"/>
+      <c r="J343" s="10">
+        <v>1</v>
+      </c>
+      <c r="K343" s="10">
+        <v>1</v>
+      </c>
+      <c r="L343" s="4"/>
+      <c r="M343" s="10">
+        <f t="shared" si="406"/>
         <v>100</v>
       </c>
-      <c r="N341" s="10">
-        <f t="shared" si="402"/>
+      <c r="N343" s="10">
+        <f t="shared" si="407"/>
         <v>2</v>
       </c>
-      <c r="O341" s="10">
-        <f t="shared" si="403"/>
+      <c r="O343" s="10">
+        <f t="shared" si="408"/>
         <v>2.5</v>
       </c>
-      <c r="P341" s="5">
-        <f t="shared" si="404"/>
+      <c r="P343" s="5">
+        <f t="shared" si="409"/>
         <v>17</v>
       </c>
-      <c r="Q341" s="11"/>
-    </row>
-    <row r="342" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="7"/>
-      <c r="B342" s="8"/>
-      <c r="C342" s="13" t="s">
+      <c r="Q343" s="11"/>
+    </row>
+    <row r="344" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="7"/>
+      <c r="B344" s="8"/>
+      <c r="C344" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D342" s="13" t="s">
+      <c r="D344" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E342" s="13">
+      <c r="E344" s="13">
         <v>80</v>
       </c>
-      <c r="F342" s="13">
+      <c r="F344" s="13">
         <v>12</v>
       </c>
-      <c r="G342" s="13">
+      <c r="G344" s="13">
         <v>1.5</v>
       </c>
-      <c r="H342" s="13">
+      <c r="H344" s="13">
         <v>5</v>
       </c>
-      <c r="I342" s="8"/>
-      <c r="J342" s="13">
-        <v>1</v>
-      </c>
-      <c r="K342" s="13">
-        <v>1</v>
-      </c>
-      <c r="L342" s="8"/>
-      <c r="M342" s="13">
-        <f t="shared" si="401"/>
+      <c r="I344" s="8"/>
+      <c r="J344" s="13">
+        <v>1</v>
+      </c>
+      <c r="K344" s="13">
+        <v>1</v>
+      </c>
+      <c r="L344" s="8"/>
+      <c r="M344" s="13">
+        <f t="shared" si="406"/>
         <v>80</v>
       </c>
-      <c r="N342" s="13">
-        <f t="shared" si="402"/>
+      <c r="N344" s="13">
+        <f t="shared" si="407"/>
         <v>12</v>
       </c>
-      <c r="O342" s="13">
-        <f t="shared" si="403"/>
+      <c r="O344" s="13">
+        <f t="shared" si="408"/>
         <v>1.5</v>
       </c>
-      <c r="P342" s="23">
-        <f t="shared" si="404"/>
+      <c r="P344" s="23">
+        <f t="shared" si="409"/>
         <v>5</v>
       </c>
-      <c r="Q342" s="16"/>
-    </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A343" s="4"/>
-      <c r="B343" s="4"/>
-      <c r="C343" s="10" t="s">
+      <c r="Q344" s="16"/>
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A345" s="4"/>
+      <c r="B345" s="4"/>
+      <c r="C345" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D343" s="4"/>
-      <c r="E343" s="4"/>
-      <c r="F343" s="4"/>
-      <c r="G343" s="4"/>
-      <c r="H343" s="4"/>
-      <c r="I343" s="4"/>
-      <c r="J343" s="4"/>
-      <c r="K343" s="4"/>
-      <c r="L343" s="4"/>
-      <c r="M343" s="16">
-        <f>SUM(M326:M342)</f>
-        <v>2016.4</v>
-      </c>
-      <c r="N343" s="16">
-        <f>SUM(N326:N342)</f>
-        <v>164.1</v>
-      </c>
-      <c r="O343" s="16">
-        <f>SUM(O326:O342)</f>
-        <v>46.080000000000013</v>
-      </c>
-      <c r="P343" s="16">
-        <f>SUM(P326:P342)</f>
-        <v>242.6</v>
-      </c>
-      <c r="Q343" s="12">
-        <f>N343/(O343+P343)</f>
-        <v>0.56844949424968816</v>
-      </c>
-    </row>
-    <row r="345" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A346" s="19">
+      <c r="D345" s="4"/>
+      <c r="E345" s="4"/>
+      <c r="F345" s="4"/>
+      <c r="G345" s="4"/>
+      <c r="H345" s="4"/>
+      <c r="I345" s="4"/>
+      <c r="J345" s="4"/>
+      <c r="K345" s="4"/>
+      <c r="L345" s="4"/>
+      <c r="M345" s="16">
+        <f>SUM(M327:M344)</f>
+        <v>2183.4</v>
+      </c>
+      <c r="N345" s="16">
+        <f>SUM(N327:N344)</f>
+        <v>157.81</v>
+      </c>
+      <c r="O345" s="16">
+        <f>SUM(O327:O344)</f>
+        <v>49.800000000000011</v>
+      </c>
+      <c r="P345" s="16">
+        <f>SUM(P327:P344)</f>
+        <v>278.80999999999995</v>
+      </c>
+      <c r="Q345" s="12">
+        <f>N345/(O345+P345)</f>
+        <v>0.48023492894312414</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A348" s="19">
         <v>43189</v>
       </c>
-      <c r="B346" s="2"/>
-      <c r="C346" s="17"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
-      <c r="F346" s="2"/>
-      <c r="G346" s="2"/>
-      <c r="H346" s="2"/>
-      <c r="I346" s="2"/>
-      <c r="J346" s="2"/>
-      <c r="K346" s="2"/>
-      <c r="L346" s="2"/>
-      <c r="M346" s="2"/>
-      <c r="N346" s="2"/>
-      <c r="O346" s="2"/>
-      <c r="P346" s="15"/>
-      <c r="Q346" s="12"/>
-    </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A347" s="3"/>
-      <c r="B347" s="4">
-        <v>1</v>
-      </c>
-      <c r="C347" s="10" t="s">
+      <c r="B348" s="2"/>
+      <c r="C348" s="17"/>
+      <c r="D348" s="2"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
+      <c r="H348" s="2"/>
+      <c r="I348" s="2"/>
+      <c r="J348" s="2"/>
+      <c r="K348" s="2"/>
+      <c r="L348" s="2"/>
+      <c r="M348" s="2"/>
+      <c r="N348" s="2"/>
+      <c r="O348" s="2"/>
+      <c r="P348" s="15"/>
+      <c r="Q348" s="12"/>
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A349" s="3"/>
+      <c r="B349" s="4">
+        <v>1</v>
+      </c>
+      <c r="C349" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D347" s="4" t="s">
+      <c r="D349" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E347" s="4">
+      <c r="E349" s="4">
         <v>880</v>
       </c>
-      <c r="F347" s="10">
+      <c r="F349" s="10">
         <v>60</v>
       </c>
-      <c r="G347" s="10">
+      <c r="G349" s="10">
         <v>9</v>
       </c>
-      <c r="H347" s="4">
+      <c r="H349" s="4">
         <v>140</v>
-      </c>
-      <c r="I347" s="4"/>
-      <c r="J347" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="K347" s="4">
-        <v>1</v>
-      </c>
-      <c r="L347" s="4"/>
-      <c r="M347" s="4">
-        <f t="shared" ref="M347:M348" si="405">J347*K347*E347</f>
-        <v>290.40000000000003</v>
-      </c>
-      <c r="N347" s="4">
-        <f t="shared" ref="N347:N348" si="406">J347*K347*F347</f>
-        <v>19.8</v>
-      </c>
-      <c r="O347" s="4">
-        <f t="shared" ref="O347:O348" si="407">J347*K347*G347</f>
-        <v>2.97</v>
-      </c>
-      <c r="P347" s="5">
-        <f t="shared" ref="P347:P348" si="408">J347*K347*H347</f>
-        <v>46.2</v>
-      </c>
-      <c r="Q347" s="11">
-        <f t="shared" ref="Q347" si="409">F347/H347</f>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A348" s="22"/>
-      <c r="B348" s="4"/>
-      <c r="C348" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D348" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E348" s="4">
-        <v>190</v>
-      </c>
-      <c r="F348" s="4">
-        <v>3</v>
-      </c>
-      <c r="G348" s="4">
-        <v>7</v>
-      </c>
-      <c r="H348" s="4">
-        <v>29</v>
-      </c>
-      <c r="I348" s="4"/>
-      <c r="J348" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K348" s="4">
-        <v>1</v>
-      </c>
-      <c r="L348" s="4"/>
-      <c r="M348" s="4">
-        <f t="shared" si="405"/>
-        <v>95</v>
-      </c>
-      <c r="N348" s="4">
-        <f t="shared" si="406"/>
-        <v>1.5</v>
-      </c>
-      <c r="O348" s="4">
-        <f t="shared" si="407"/>
-        <v>3.5</v>
-      </c>
-      <c r="P348" s="5">
-        <f t="shared" si="408"/>
-        <v>14.5</v>
-      </c>
-      <c r="Q348" s="16">
-        <f>F348/H348</f>
-        <v>0.10344827586206896</v>
-      </c>
-    </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A349" s="22"/>
-      <c r="B349" s="4">
-        <v>2</v>
-      </c>
-      <c r="C349" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D349" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E349" s="4">
-        <v>120</v>
-      </c>
-      <c r="F349" s="10">
-        <v>24</v>
-      </c>
-      <c r="G349" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="H349" s="4">
-        <v>3</v>
       </c>
       <c r="I349" s="4"/>
       <c r="J349" s="4">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="K349" s="4">
         <v>1</v>
       </c>
       <c r="L349" s="4"/>
       <c r="M349" s="4">
-        <f>J349*K349*E349</f>
-        <v>120</v>
+        <f t="shared" ref="M349:M350" si="410">J349*K349*E349</f>
+        <v>290.40000000000003</v>
       </c>
       <c r="N349" s="4">
-        <f>J349*K349*F349</f>
-        <v>24</v>
+        <f t="shared" ref="N349:N350" si="411">J349*K349*F349</f>
+        <v>19.8</v>
       </c>
       <c r="O349" s="4">
-        <f>J349*K349*G349</f>
-        <v>1.5</v>
+        <f t="shared" ref="O349:O350" si="412">J349*K349*G349</f>
+        <v>2.97</v>
       </c>
       <c r="P349" s="5">
-        <f>J349*K349*H349</f>
-        <v>3</v>
-      </c>
-      <c r="Q349" s="16">
-        <f>F349/H349</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A350" s="6"/>
+        <f t="shared" ref="P349:P350" si="413">J349*K349*H349</f>
+        <v>46.2</v>
+      </c>
+      <c r="Q349" s="11">
+        <f t="shared" ref="Q349" si="414">F349/H349</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A350" s="22"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E350" s="4">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="F350" s="4">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G350" s="4">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="H350" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I350" s="4"/>
       <c r="J350" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K350" s="4">
         <v>1</v>
       </c>
       <c r="L350" s="4"/>
       <c r="M350" s="4">
-        <f t="shared" ref="M350:M358" si="410">J350*K350*E350</f>
-        <v>105</v>
+        <f t="shared" si="410"/>
+        <v>95</v>
       </c>
       <c r="N350" s="4">
-        <f t="shared" ref="N350:N358" si="411">J350*K350*F350</f>
-        <v>2.7</v>
+        <f t="shared" si="411"/>
+        <v>1.5</v>
       </c>
       <c r="O350" s="4">
-        <f t="shared" ref="O350:O358" si="412">J350*K350*G350</f>
-        <v>0.4</v>
+        <f t="shared" si="412"/>
+        <v>3.5</v>
       </c>
       <c r="P350" s="5">
-        <f t="shared" ref="P350:P358" si="413">J350*K350*H350</f>
-        <v>27</v>
-      </c>
-      <c r="Q350" s="11">
-        <f t="shared" ref="Q350:Q351" si="414">F350/H350</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="413"/>
+        <v>14.5</v>
+      </c>
+      <c r="Q350" s="16">
+        <f>F350/H350</f>
+        <v>0.10344827586206896</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" s="22"/>
       <c r="B351" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E351" s="4">
-        <v>90</v>
-      </c>
-      <c r="F351" s="4">
-        <v>8</v>
-      </c>
-      <c r="G351" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H351" s="10">
-        <v>13</v>
+        <v>120</v>
+      </c>
+      <c r="F351" s="10">
+        <v>24</v>
+      </c>
+      <c r="G351" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H351" s="4">
+        <v>3</v>
       </c>
       <c r="I351" s="4"/>
-      <c r="J351" s="10">
-        <v>1</v>
-      </c>
-      <c r="K351" s="10">
+      <c r="J351" s="4">
+        <v>1</v>
+      </c>
+      <c r="K351" s="4">
         <v>1</v>
       </c>
       <c r="L351" s="4"/>
       <c r="M351" s="4">
-        <f t="shared" si="410"/>
-        <v>90</v>
+        <f>J351*K351*E351</f>
+        <v>120</v>
       </c>
       <c r="N351" s="4">
-        <f t="shared" si="411"/>
+        <f>J351*K351*F351</f>
+        <v>24</v>
+      </c>
+      <c r="O351" s="4">
+        <f>J351*K351*G351</f>
+        <v>1.5</v>
+      </c>
+      <c r="P351" s="5">
+        <f>J351*K351*H351</f>
+        <v>3</v>
+      </c>
+      <c r="Q351" s="16">
+        <f>F351/H351</f>
         <v>8</v>
       </c>
-      <c r="O351" s="4">
-        <f t="shared" si="412"/>
-        <v>0.01</v>
-      </c>
-      <c r="P351" s="5">
-        <f t="shared" si="413"/>
-        <v>13</v>
-      </c>
-      <c r="Q351" s="16">
-        <f t="shared" si="414"/>
-        <v>0.61538461538461542</v>
-      </c>
-    </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A352" s="22"/>
+    </row>
+    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A352" s="6"/>
       <c r="B352" s="4"/>
-      <c r="C352" s="10" t="s">
-        <v>99</v>
+      <c r="C352" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E352" s="4">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F352" s="4">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="G352" s="4">
-        <v>2</v>
-      </c>
-      <c r="H352" s="10">
-        <v>15</v>
+        <v>0.4</v>
+      </c>
+      <c r="H352" s="4">
+        <v>27</v>
       </c>
       <c r="I352" s="4"/>
-      <c r="J352" s="10">
-        <v>1</v>
-      </c>
-      <c r="K352" s="10">
+      <c r="J352" s="4">
+        <v>1</v>
+      </c>
+      <c r="K352" s="4">
         <v>1</v>
       </c>
       <c r="L352" s="4"/>
       <c r="M352" s="4">
-        <f t="shared" si="410"/>
-        <v>100</v>
+        <f t="shared" ref="M352:M361" si="415">J352*K352*E352</f>
+        <v>105</v>
       </c>
       <c r="N352" s="4">
-        <f t="shared" si="411"/>
-        <v>4</v>
+        <f t="shared" ref="N352:N361" si="416">J352*K352*F352</f>
+        <v>2.7</v>
       </c>
       <c r="O352" s="4">
-        <f t="shared" si="412"/>
-        <v>2</v>
+        <f t="shared" ref="O352:O361" si="417">J352*K352*G352</f>
+        <v>0.4</v>
       </c>
       <c r="P352" s="5">
-        <f t="shared" si="413"/>
-        <v>15</v>
-      </c>
-      <c r="Q352" s="16"/>
+        <f t="shared" ref="P352:P361" si="418">J352*K352*H352</f>
+        <v>27</v>
+      </c>
+      <c r="Q352" s="11">
+        <f t="shared" ref="Q352:Q353" si="419">F352/H352</f>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353" s="22"/>
-      <c r="B353" s="4"/>
-      <c r="C353" s="4" t="s">
-        <v>30</v>
+      <c r="B353" s="4">
+        <v>3</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E353" s="4">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="F353" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G353" s="4">
-        <v>7</v>
-      </c>
-      <c r="H353" s="4">
-        <v>29</v>
+        <v>0.01</v>
+      </c>
+      <c r="H353" s="10">
+        <v>13</v>
       </c>
       <c r="I353" s="4"/>
-      <c r="J353" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="K353" s="4">
+      <c r="J353" s="10">
+        <v>1</v>
+      </c>
+      <c r="K353" s="10">
         <v>1</v>
       </c>
       <c r="L353" s="4"/>
       <c r="M353" s="4">
-        <f t="shared" si="410"/>
-        <v>95</v>
+        <f t="shared" si="415"/>
+        <v>90</v>
       </c>
       <c r="N353" s="4">
-        <f t="shared" si="411"/>
-        <v>1.5</v>
+        <f t="shared" si="416"/>
+        <v>8</v>
       </c>
       <c r="O353" s="4">
-        <f t="shared" si="412"/>
-        <v>3.5</v>
+        <f t="shared" si="417"/>
+        <v>0.01</v>
       </c>
       <c r="P353" s="5">
-        <f t="shared" si="413"/>
-        <v>14.5</v>
+        <f t="shared" si="418"/>
+        <v>13</v>
       </c>
       <c r="Q353" s="16">
-        <f>F353/H353</f>
-        <v>0.10344827586206896</v>
+        <f t="shared" si="419"/>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A354" s="3"/>
+      <c r="A354" s="22"/>
       <c r="B354" s="4"/>
       <c r="C354" s="10" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E354" s="4">
-        <v>78</v>
-      </c>
-      <c r="F354" s="10">
-        <v>6</v>
-      </c>
-      <c r="G354" s="10">
-        <v>5</v>
-      </c>
-      <c r="H354" s="4">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F354" s="4">
+        <v>4</v>
+      </c>
+      <c r="G354" s="4">
+        <v>2</v>
+      </c>
+      <c r="H354" s="10">
+        <v>15</v>
       </c>
       <c r="I354" s="4"/>
-      <c r="J354" s="4">
-        <v>1</v>
-      </c>
-      <c r="K354" s="4">
+      <c r="J354" s="10">
+        <v>1</v>
+      </c>
+      <c r="K354" s="10">
         <v>1</v>
       </c>
       <c r="L354" s="4"/>
       <c r="M354" s="4">
-        <f t="shared" si="410"/>
-        <v>78</v>
+        <f t="shared" si="415"/>
+        <v>100</v>
       </c>
       <c r="N354" s="4">
-        <f t="shared" si="411"/>
-        <v>6</v>
+        <f t="shared" si="416"/>
+        <v>4</v>
       </c>
       <c r="O354" s="4">
-        <f t="shared" si="412"/>
-        <v>5</v>
+        <f t="shared" si="417"/>
+        <v>2</v>
       </c>
       <c r="P354" s="5">
-        <f t="shared" si="413"/>
-        <v>1</v>
-      </c>
-      <c r="Q354" s="11">
-        <f t="shared" ref="Q354:Q355" si="415">F354/H354</f>
-        <v>6</v>
-      </c>
+        <f t="shared" si="418"/>
+        <v>15</v>
+      </c>
+      <c r="Q354" s="16"/>
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A355" s="3"/>
+      <c r="A355" s="22"/>
       <c r="B355" s="4"/>
-      <c r="C355" s="10" t="s">
-        <v>105</v>
+      <c r="C355" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E355" s="4">
-        <v>17</v>
-      </c>
-      <c r="F355" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="G355" s="10">
-        <v>0.1</v>
+        <v>190</v>
+      </c>
+      <c r="F355" s="4">
+        <v>3</v>
+      </c>
+      <c r="G355" s="4">
+        <v>7</v>
       </c>
       <c r="H355" s="4">
-        <v>0.2</v>
+        <v>29</v>
       </c>
       <c r="I355" s="4"/>
       <c r="J355" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="K355" s="4">
         <v>1</v>
       </c>
       <c r="L355" s="4"/>
       <c r="M355" s="4">
-        <f t="shared" si="410"/>
-        <v>51</v>
+        <f t="shared" si="415"/>
+        <v>95</v>
       </c>
       <c r="N355" s="4">
-        <f t="shared" si="411"/>
-        <v>10.8</v>
+        <f t="shared" si="416"/>
+        <v>1.5</v>
       </c>
       <c r="O355" s="4">
-        <f t="shared" si="412"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="417"/>
+        <v>3.5</v>
       </c>
       <c r="P355" s="5">
-        <f t="shared" si="413"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="Q355" s="11">
-        <f t="shared" si="415"/>
-        <v>18</v>
+        <f t="shared" si="418"/>
+        <v>14.5</v>
+      </c>
+      <c r="Q355" s="16">
+        <f>F355/H355</f>
+        <v>0.10344827586206896</v>
       </c>
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
-      <c r="B356" s="4">
-        <v>4</v>
-      </c>
-      <c r="C356" t="s">
-        <v>98</v>
-      </c>
-      <c r="D356" t="s">
-        <v>93</v>
-      </c>
-      <c r="E356" s="18">
-        <v>300</v>
-      </c>
-      <c r="F356" s="18">
-        <v>34</v>
-      </c>
-      <c r="G356" s="18">
-        <v>13</v>
-      </c>
-      <c r="H356" s="18">
-        <v>11</v>
+      <c r="B356" s="4"/>
+      <c r="C356" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E356" s="4">
+        <v>78</v>
+      </c>
+      <c r="F356" s="10">
+        <v>6</v>
+      </c>
+      <c r="G356" s="10">
+        <v>5</v>
+      </c>
+      <c r="H356" s="4">
+        <v>1</v>
       </c>
       <c r="I356" s="4"/>
-      <c r="J356" s="26">
-        <v>1</v>
-      </c>
-      <c r="K356" s="26">
+      <c r="J356" s="4">
+        <v>1</v>
+      </c>
+      <c r="K356" s="4">
         <v>1</v>
       </c>
       <c r="L356" s="4"/>
-      <c r="M356" s="10">
-        <f t="shared" si="410"/>
-        <v>300</v>
-      </c>
-      <c r="N356" s="10">
-        <f t="shared" si="411"/>
-        <v>34</v>
-      </c>
-      <c r="O356" s="10">
-        <f t="shared" si="412"/>
-        <v>13</v>
+      <c r="M356" s="4">
+        <f t="shared" si="415"/>
+        <v>78</v>
+      </c>
+      <c r="N356" s="4">
+        <f t="shared" si="416"/>
+        <v>6</v>
+      </c>
+      <c r="O356" s="4">
+        <f t="shared" si="417"/>
+        <v>5</v>
       </c>
       <c r="P356" s="5">
-        <f t="shared" si="413"/>
-        <v>11</v>
-      </c>
-      <c r="Q356" s="11"/>
+        <f t="shared" si="418"/>
+        <v>1</v>
+      </c>
+      <c r="Q356" s="11">
+        <f t="shared" ref="Q356:Q357" si="420">F356/H356</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A357" s="6"/>
+      <c r="A357" s="3"/>
       <c r="B357" s="4"/>
-      <c r="C357" s="4" t="s">
-        <v>82</v>
+      <c r="C357" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E357" s="4">
-        <v>120</v>
-      </c>
-      <c r="F357" s="4">
-        <v>3</v>
-      </c>
-      <c r="G357" s="4">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="F357" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G357" s="10">
+        <v>0.1</v>
       </c>
       <c r="H357" s="4">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="I357" s="4"/>
       <c r="J357" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K357" s="4">
         <v>1</v>
       </c>
       <c r="L357" s="4"/>
       <c r="M357" s="4">
-        <f t="shared" si="410"/>
-        <v>120</v>
+        <f t="shared" si="415"/>
+        <v>51</v>
       </c>
       <c r="N357" s="4">
-        <f t="shared" si="411"/>
-        <v>3</v>
+        <f t="shared" si="416"/>
+        <v>10.8</v>
       </c>
       <c r="O357" s="4">
-        <f t="shared" si="412"/>
-        <v>3</v>
+        <f t="shared" si="417"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="P357" s="5">
-        <f t="shared" si="413"/>
-        <v>20</v>
+        <f t="shared" si="418"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="Q357" s="11">
-        <f t="shared" ref="Q357" si="416">F357/H357</f>
-        <v>0.15</v>
+        <f t="shared" si="420"/>
+        <v>18</v>
       </c>
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A358" s="6"/>
+      <c r="A358" s="3"/>
       <c r="B358" s="4">
-        <v>5</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D358" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E358" s="4">
-        <v>95</v>
-      </c>
-      <c r="F358" s="4">
-        <v>1</v>
-      </c>
-      <c r="G358" s="4">
-        <v>1</v>
-      </c>
-      <c r="H358" s="4">
-        <v>25</v>
-      </c>
-      <c r="I358" s="10"/>
-      <c r="J358" s="10">
-        <v>1</v>
-      </c>
-      <c r="K358" s="10">
-        <v>1</v>
-      </c>
-      <c r="L358" s="10"/>
-      <c r="M358" s="4">
-        <f t="shared" si="410"/>
-        <v>95</v>
-      </c>
-      <c r="N358" s="4">
-        <f t="shared" si="411"/>
-        <v>1</v>
-      </c>
-      <c r="O358" s="4">
-        <f t="shared" si="412"/>
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C358" t="s">
+        <v>98</v>
+      </c>
+      <c r="D358" t="s">
+        <v>93</v>
+      </c>
+      <c r="E358" s="18">
+        <v>300</v>
+      </c>
+      <c r="F358" s="18">
+        <v>34</v>
+      </c>
+      <c r="G358" s="18">
+        <v>13</v>
+      </c>
+      <c r="H358" s="18">
+        <v>11</v>
+      </c>
+      <c r="I358" s="4"/>
+      <c r="J358" s="26">
+        <v>1</v>
+      </c>
+      <c r="K358" s="26">
+        <v>1</v>
+      </c>
+      <c r="L358" s="4"/>
+      <c r="M358" s="10">
+        <f t="shared" si="415"/>
+        <v>300</v>
+      </c>
+      <c r="N358" s="10">
+        <f t="shared" si="416"/>
+        <v>34</v>
+      </c>
+      <c r="O358" s="10">
+        <f t="shared" si="417"/>
+        <v>13</v>
       </c>
       <c r="P358" s="5">
-        <f t="shared" si="413"/>
-        <v>25</v>
+        <f t="shared" si="418"/>
+        <v>11</v>
       </c>
       <c r="Q358" s="11"/>
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
-      <c r="B359" s="4">
-        <v>6</v>
-      </c>
-      <c r="C359" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D359" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E359" s="10">
-        <v>165</v>
-      </c>
-      <c r="F359" s="10">
-        <v>31</v>
-      </c>
-      <c r="G359" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="H359" s="10">
-        <v>1</v>
-      </c>
-      <c r="I359" s="10"/>
-      <c r="J359" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="K359" s="10">
-        <v>1</v>
-      </c>
-      <c r="L359" s="10"/>
+      <c r="B359" s="4"/>
+      <c r="C359" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E359" s="4">
+        <v>120</v>
+      </c>
+      <c r="F359" s="4">
+        <v>3</v>
+      </c>
+      <c r="G359" s="4">
+        <v>3</v>
+      </c>
+      <c r="H359" s="4">
+        <v>20</v>
+      </c>
+      <c r="I359" s="4"/>
+      <c r="J359" s="4">
+        <v>1</v>
+      </c>
+      <c r="K359" s="4">
+        <v>1</v>
+      </c>
+      <c r="L359" s="4"/>
       <c r="M359" s="4">
-        <f>J359*K359*E359</f>
-        <v>132</v>
+        <f t="shared" si="415"/>
+        <v>120</v>
       </c>
       <c r="N359" s="4">
-        <f>J359*K359*F359</f>
-        <v>24.8</v>
+        <f t="shared" si="416"/>
+        <v>3</v>
       </c>
       <c r="O359" s="4">
-        <f>J359*K359*G359</f>
-        <v>2.8800000000000003</v>
+        <f t="shared" si="417"/>
+        <v>3</v>
       </c>
       <c r="P359" s="5">
-        <f>J359*K359*H359</f>
-        <v>0.8</v>
-      </c>
-      <c r="Q359" s="11"/>
+        <f t="shared" si="418"/>
+        <v>20</v>
+      </c>
+      <c r="Q359" s="11">
+        <f t="shared" ref="Q359" si="421">F359/H359</f>
+        <v>0.15</v>
+      </c>
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A360" s="3"/>
+      <c r="A360" s="6"/>
       <c r="B360" s="4"/>
       <c r="C360" s="10" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D360" s="10" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E360" s="10">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F360" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G360" s="10">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="H360" s="10">
-        <v>3</v>
-      </c>
-      <c r="I360" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="I360" s="4"/>
       <c r="J360" s="10">
         <v>1</v>
       </c>
       <c r="K360" s="10">
         <v>1</v>
       </c>
-      <c r="L360" s="10"/>
-      <c r="M360" s="4">
-        <f t="shared" ref="M360:M363" si="417">J360*K360*E360</f>
-        <v>45</v>
-      </c>
-      <c r="N360" s="4">
-        <f t="shared" ref="N360:N363" si="418">J360*K360*F360</f>
-        <v>1</v>
-      </c>
-      <c r="O360" s="4">
-        <f t="shared" ref="O360:O363" si="419">J360*K360*G360</f>
-        <v>3</v>
+      <c r="L360" s="4"/>
+      <c r="M360" s="10">
+        <f t="shared" si="415"/>
+        <v>60</v>
+      </c>
+      <c r="N360" s="10">
+        <f t="shared" si="416"/>
+        <v>4</v>
+      </c>
+      <c r="O360" s="10">
+        <f t="shared" si="417"/>
+        <v>0.01</v>
       </c>
       <c r="P360" s="5">
-        <f t="shared" ref="P360:P363" si="420">J360*K360*H360</f>
-        <v>3</v>
-      </c>
-      <c r="Q360" s="11"/>
+        <f t="shared" si="418"/>
+        <v>13</v>
+      </c>
+      <c r="Q360" s="16"/>
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
-      <c r="B361" s="4"/>
-      <c r="C361" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D361" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E361" s="10">
-        <v>60</v>
-      </c>
-      <c r="F361" s="10">
-        <v>4</v>
-      </c>
-      <c r="G361" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="H361" s="10">
-        <v>13</v>
-      </c>
-      <c r="I361" s="4"/>
+      <c r="B361" s="4">
+        <v>5</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E361" s="4">
+        <v>95</v>
+      </c>
+      <c r="F361" s="4">
+        <v>1</v>
+      </c>
+      <c r="G361" s="4">
+        <v>1</v>
+      </c>
+      <c r="H361" s="4">
+        <v>25</v>
+      </c>
+      <c r="I361" s="10"/>
       <c r="J361" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K361" s="10">
         <v>1</v>
       </c>
-      <c r="L361" s="4"/>
-      <c r="M361" s="10">
+      <c r="L361" s="10"/>
+      <c r="M361" s="4">
+        <f t="shared" si="415"/>
+        <v>95</v>
+      </c>
+      <c r="N361" s="4">
+        <f t="shared" si="416"/>
+        <v>1</v>
+      </c>
+      <c r="O361" s="4">
         <f t="shared" si="417"/>
-        <v>120</v>
-      </c>
-      <c r="N361" s="10">
+        <v>1</v>
+      </c>
+      <c r="P361" s="5">
         <f t="shared" si="418"/>
-        <v>8</v>
-      </c>
-      <c r="O361" s="10">
-        <f t="shared" si="419"/>
-        <v>0.02</v>
-      </c>
-      <c r="P361" s="5">
-        <f t="shared" si="420"/>
-        <v>26</v>
-      </c>
-      <c r="Q361" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="Q361" s="11"/>
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A362" s="3"/>
+      <c r="A362" s="6"/>
       <c r="B362" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D362" s="4" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="D362" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E362" s="10">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="F362" s="10">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G362" s="10">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H362" s="10">
-        <v>17</v>
-      </c>
-      <c r="I362" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="I362" s="10"/>
       <c r="J362" s="10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K362" s="10">
         <v>1</v>
       </c>
-      <c r="L362" s="4"/>
-      <c r="M362" s="10">
-        <f t="shared" si="417"/>
-        <v>100</v>
-      </c>
-      <c r="N362" s="10">
-        <f t="shared" si="418"/>
-        <v>2</v>
-      </c>
-      <c r="O362" s="10">
-        <f t="shared" si="419"/>
-        <v>2.5</v>
+      <c r="L362" s="10"/>
+      <c r="M362" s="4">
+        <f>J362*K362*E362</f>
+        <v>132</v>
+      </c>
+      <c r="N362" s="4">
+        <f>J362*K362*F362</f>
+        <v>24.8</v>
+      </c>
+      <c r="O362" s="4">
+        <f>J362*K362*G362</f>
+        <v>2.8800000000000003</v>
       </c>
       <c r="P362" s="5">
-        <f t="shared" si="420"/>
-        <v>17</v>
+        <f>J362*K362*H362</f>
+        <v>0.8</v>
       </c>
       <c r="Q362" s="11"/>
     </row>
-    <row r="363" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="7"/>
-      <c r="B363" s="8"/>
-      <c r="C363" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D363" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E363" s="13">
-        <v>80</v>
-      </c>
-      <c r="F363" s="13">
-        <v>12</v>
-      </c>
-      <c r="G363" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="H363" s="13">
-        <v>5</v>
-      </c>
-      <c r="I363" s="8"/>
-      <c r="J363" s="13">
-        <v>1</v>
-      </c>
-      <c r="K363" s="13">
-        <v>1</v>
-      </c>
-      <c r="L363" s="8"/>
-      <c r="M363" s="13">
-        <f t="shared" si="417"/>
-        <v>80</v>
-      </c>
-      <c r="N363" s="13">
-        <f t="shared" si="418"/>
-        <v>12</v>
-      </c>
-      <c r="O363" s="13">
-        <f t="shared" si="419"/>
-        <v>1.5</v>
-      </c>
-      <c r="P363" s="23">
-        <f t="shared" si="420"/>
-        <v>5</v>
-      </c>
-      <c r="Q363" s="16"/>
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A363" s="3"/>
+      <c r="B363" s="4"/>
+      <c r="C363" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D363" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E363" s="10">
+        <v>45</v>
+      </c>
+      <c r="F363" s="10">
+        <v>1</v>
+      </c>
+      <c r="G363" s="10">
+        <v>3</v>
+      </c>
+      <c r="H363" s="10">
+        <v>3</v>
+      </c>
+      <c r="I363" s="10"/>
+      <c r="J363" s="10">
+        <v>1</v>
+      </c>
+      <c r="K363" s="10">
+        <v>1</v>
+      </c>
+      <c r="L363" s="10"/>
+      <c r="M363" s="4">
+        <f t="shared" ref="M363:M366" si="422">J363*K363*E363</f>
+        <v>45</v>
+      </c>
+      <c r="N363" s="4">
+        <f t="shared" ref="N363:N366" si="423">J363*K363*F363</f>
+        <v>1</v>
+      </c>
+      <c r="O363" s="4">
+        <f t="shared" ref="O363:O366" si="424">J363*K363*G363</f>
+        <v>3</v>
+      </c>
+      <c r="P363" s="5">
+        <f t="shared" ref="P363:P366" si="425">J363*K363*H363</f>
+        <v>3</v>
+      </c>
+      <c r="Q363" s="11"/>
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A364" s="4"/>
+      <c r="A364" s="6"/>
       <c r="B364" s="4"/>
       <c r="C364" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D364" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E364" s="10">
+        <v>60</v>
+      </c>
+      <c r="F364" s="10">
+        <v>4</v>
+      </c>
+      <c r="G364" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="H364" s="10">
+        <v>13</v>
+      </c>
+      <c r="I364" s="4"/>
+      <c r="J364" s="10">
+        <v>2</v>
+      </c>
+      <c r="K364" s="10">
+        <v>1</v>
+      </c>
+      <c r="L364" s="4"/>
+      <c r="M364" s="10">
+        <f t="shared" si="422"/>
+        <v>120</v>
+      </c>
+      <c r="N364" s="10">
+        <f t="shared" si="423"/>
+        <v>8</v>
+      </c>
+      <c r="O364" s="10">
+        <f t="shared" si="424"/>
+        <v>0.02</v>
+      </c>
+      <c r="P364" s="5">
+        <f t="shared" si="425"/>
+        <v>26</v>
+      </c>
+      <c r="Q364" s="16"/>
+    </row>
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A365" s="3"/>
+      <c r="B365" s="4">
+        <v>7</v>
+      </c>
+      <c r="C365" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E365" s="10">
+        <v>100</v>
+      </c>
+      <c r="F365" s="10">
+        <v>2</v>
+      </c>
+      <c r="G365" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="H365" s="10">
+        <v>17</v>
+      </c>
+      <c r="I365" s="4"/>
+      <c r="J365" s="10">
+        <v>1</v>
+      </c>
+      <c r="K365" s="10">
+        <v>1</v>
+      </c>
+      <c r="L365" s="4"/>
+      <c r="M365" s="10">
+        <f t="shared" si="422"/>
+        <v>100</v>
+      </c>
+      <c r="N365" s="10">
+        <f t="shared" si="423"/>
+        <v>2</v>
+      </c>
+      <c r="O365" s="10">
+        <f t="shared" si="424"/>
+        <v>2.5</v>
+      </c>
+      <c r="P365" s="5">
+        <f t="shared" si="425"/>
+        <v>17</v>
+      </c>
+      <c r="Q365" s="11"/>
+    </row>
+    <row r="366" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="7"/>
+      <c r="B366" s="8"/>
+      <c r="C366" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D366" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E366" s="13">
+        <v>80</v>
+      </c>
+      <c r="F366" s="13">
+        <v>12</v>
+      </c>
+      <c r="G366" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H366" s="13">
+        <v>5</v>
+      </c>
+      <c r="I366" s="8"/>
+      <c r="J366" s="13">
+        <v>1</v>
+      </c>
+      <c r="K366" s="13">
+        <v>1</v>
+      </c>
+      <c r="L366" s="8"/>
+      <c r="M366" s="13">
+        <f t="shared" si="422"/>
+        <v>80</v>
+      </c>
+      <c r="N366" s="13">
+        <f t="shared" si="423"/>
+        <v>12</v>
+      </c>
+      <c r="O366" s="13">
+        <f t="shared" si="424"/>
+        <v>1.5</v>
+      </c>
+      <c r="P366" s="23">
+        <f t="shared" si="425"/>
+        <v>5</v>
+      </c>
+      <c r="Q366" s="16"/>
+    </row>
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A367" s="4"/>
+      <c r="B367" s="4"/>
+      <c r="C367" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D364" s="4"/>
-      <c r="E364" s="4"/>
-      <c r="F364" s="4"/>
-      <c r="G364" s="4"/>
-      <c r="H364" s="4"/>
-      <c r="I364" s="4"/>
-      <c r="J364" s="4"/>
-      <c r="K364" s="4"/>
-      <c r="L364" s="4"/>
-      <c r="M364" s="16">
-        <f>SUM(M347:M363)</f>
-        <v>2016.4</v>
-      </c>
-      <c r="N364" s="16">
-        <f>SUM(N347:N363)</f>
-        <v>164.1</v>
-      </c>
-      <c r="O364" s="16">
-        <f>SUM(O347:O363)</f>
-        <v>46.080000000000013</v>
-      </c>
-      <c r="P364" s="16">
-        <f>SUM(P347:P363)</f>
-        <v>242.6</v>
-      </c>
-      <c r="Q364" s="12">
-        <f>N364/(O364+P364)</f>
-        <v>0.56844949424968816</v>
+      <c r="D367" s="4"/>
+      <c r="E367" s="4"/>
+      <c r="F367" s="4"/>
+      <c r="G367" s="4"/>
+      <c r="H367" s="4"/>
+      <c r="I367" s="4"/>
+      <c r="J367" s="4"/>
+      <c r="K367" s="4"/>
+      <c r="L367" s="4"/>
+      <c r="M367" s="16">
+        <f>SUM(M349:M366)</f>
+        <v>2076.4</v>
+      </c>
+      <c r="N367" s="16">
+        <f>SUM(N349:N366)</f>
+        <v>168.1</v>
+      </c>
+      <c r="O367" s="16">
+        <f>SUM(O349:O366)</f>
+        <v>46.090000000000011</v>
+      </c>
+      <c r="P367" s="16">
+        <f>SUM(P349:P366)</f>
+        <v>255.6</v>
+      </c>
+      <c r="Q367" s="12">
+        <f>N367/(O367+P367)</f>
+        <v>0.55719447114587817</v>
       </c>
     </row>
   </sheetData>

--- a/New Microsoft Excel Worksheet (2).xlsx
+++ b/New Microsoft Excel Worksheet (2).xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="131">
   <si>
     <t>30 songs</t>
   </si>
@@ -246,12 +247,6 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>Salad Sauce (Bolthouse Salsa Ranch)</t>
-  </si>
-  <si>
-    <t>Salad Sauce (Margetti Ranch light)</t>
-  </si>
-  <si>
     <t>2 tbsp(30 g)</t>
   </si>
   <si>
@@ -361,6 +356,66 @@
   </si>
   <si>
     <t>Atlantic Cod</t>
+  </si>
+  <si>
+    <t>Chicken Breast Slice (Columbus)</t>
+  </si>
+  <si>
+    <t>Omega 3 Nuts (Costco)</t>
+  </si>
+  <si>
+    <t>1/4 cup(30 g)</t>
+  </si>
+  <si>
+    <t>Cereal Cocoa</t>
+  </si>
+  <si>
+    <t>3/4 cup</t>
+  </si>
+  <si>
+    <t>Shredded Wheat</t>
+  </si>
+  <si>
+    <t>1/4 cup</t>
+  </si>
+  <si>
+    <t>Hand Pull Chicken Breast (Costco)</t>
+  </si>
+  <si>
+    <t>Brown Rice</t>
+  </si>
+  <si>
+    <t>Crab meat</t>
+  </si>
+  <si>
+    <t>Tilapia</t>
+  </si>
+  <si>
+    <t>#Brown Rice bowl</t>
+  </si>
+  <si>
+    <t>#Tilapia Fish Taco</t>
+  </si>
+  <si>
+    <t>Sour Cream (Daisy Light)</t>
+  </si>
+  <si>
+    <t>2 tbsp (30g/30 ml)</t>
+  </si>
+  <si>
+    <t>tortilla</t>
+  </si>
+  <si>
+    <t>1 Container</t>
+  </si>
+  <si>
+    <t>Chobani (Fat Free)</t>
+  </si>
+  <si>
+    <t>Ranch (Margetti Ranch light)</t>
+  </si>
+  <si>
+    <t>Salad Ranch (Bolthouse Salsa Ranch)</t>
   </si>
 </sst>
 </file>
@@ -1170,11 +1225,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3586DD2A-CF47-4634-8593-F7E9BCE1A862}">
-  <dimension ref="A1:R367"/>
+  <dimension ref="A1:R432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G360" sqref="G360"/>
+      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C407" sqref="C407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8443,10 +8498,10 @@
       <c r="A191" s="6"/>
       <c r="B191" s="4"/>
       <c r="C191" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D191" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D191" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="E191" s="10">
         <v>45</v>
@@ -8700,10 +8755,10 @@
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="13" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E198" s="13">
         <v>80</v>
@@ -8903,10 +8958,10 @@
       <c r="A204" s="7"/>
       <c r="B204" s="8"/>
       <c r="C204" s="13" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E204" s="13">
         <v>80</v>
@@ -9106,10 +9161,10 @@
       <c r="A210" s="7"/>
       <c r="B210" s="8"/>
       <c r="C210" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D210" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="D210" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="E210" s="13">
         <v>45</v>
@@ -9309,10 +9364,10 @@
       <c r="A216" s="7"/>
       <c r="B216" s="8"/>
       <c r="C216" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E216" s="13">
         <v>60</v>
@@ -9566,10 +9621,10 @@
       <c r="A223" s="22"/>
       <c r="B223" s="4"/>
       <c r="C223" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D223" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="E223" s="4">
         <v>130</v>
@@ -9730,10 +9785,10 @@
       <c r="A226" s="6"/>
       <c r="B226" s="4"/>
       <c r="C226" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D226" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="D226" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="E226" s="10">
         <v>60</v>
@@ -10229,10 +10284,10 @@
         <v>4</v>
       </c>
       <c r="C236" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D236" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D236" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="E236" s="10">
         <v>45</v>
@@ -10283,7 +10338,7 @@
       <c r="A237" s="3"/>
       <c r="B237" s="4"/>
       <c r="C237" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D237" s="10" t="s">
         <v>51</v>
@@ -10337,10 +10392,10 @@
       <c r="A238" s="6"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E238" s="4">
         <v>120</v>
@@ -10501,10 +10556,10 @@
       <c r="A241" s="6"/>
       <c r="B241" s="4"/>
       <c r="C241" s="10" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E241" s="10">
         <v>80</v>
@@ -11070,13 +11125,13 @@
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B254" s="10">
         <v>4</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>51</v>
@@ -11238,10 +11293,10 @@
       <c r="A257" s="6"/>
       <c r="B257" s="4"/>
       <c r="C257" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E257" s="10">
         <v>40</v>
@@ -11289,7 +11344,7 @@
       <c r="A258" s="3"/>
       <c r="B258" s="4"/>
       <c r="C258" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>51</v>
@@ -11399,10 +11454,10 @@
       <c r="A260" s="6"/>
       <c r="B260" s="4"/>
       <c r="C260" s="10" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E260" s="10">
         <v>80</v>
@@ -11453,10 +11508,10 @@
       <c r="A261" s="6"/>
       <c r="B261" s="4"/>
       <c r="C261" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E261" s="10">
         <v>68</v>
@@ -11563,10 +11618,10 @@
       <c r="A263" s="7"/>
       <c r="B263" s="8"/>
       <c r="C263" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D263" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E263" s="13">
         <v>80</v>
@@ -11677,10 +11732,10 @@
         <v>1</v>
       </c>
       <c r="C269" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D269" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D269" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="E269" s="4">
         <v>130</v>
@@ -11731,10 +11786,10 @@
       <c r="A270" s="22"/>
       <c r="B270" s="4"/>
       <c r="C270" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E270" s="4">
         <v>100</v>
@@ -11889,10 +11944,10 @@
         <v>2</v>
       </c>
       <c r="C273" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D273" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E273" s="18">
         <v>300</v>
@@ -11936,10 +11991,10 @@
       <c r="A274" s="3"/>
       <c r="B274" s="4"/>
       <c r="C274" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E274" s="10">
         <v>100</v>
@@ -11985,10 +12040,10 @@
         <v>3</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E275" s="10">
         <v>100</v>
@@ -12142,10 +12197,10 @@
       <c r="A278" s="3"/>
       <c r="B278" s="4"/>
       <c r="C278" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E278" s="10">
         <v>100</v>
@@ -12189,10 +12244,10 @@
       <c r="A279" s="6"/>
       <c r="B279" s="4"/>
       <c r="C279" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E279" s="10">
         <v>68</v>
@@ -12243,10 +12298,10 @@
       <c r="A280" s="7"/>
       <c r="B280" s="8"/>
       <c r="C280" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D280" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E280" s="13">
         <v>80</v>
@@ -12523,10 +12578,10 @@
         <v>3</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E288" s="4">
         <v>90</v>
@@ -12577,10 +12632,10 @@
       <c r="A289" s="22"/>
       <c r="B289" s="4"/>
       <c r="C289" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E289" s="4">
         <v>100</v>
@@ -12733,7 +12788,7 @@
       <c r="A292" s="3"/>
       <c r="B292" s="4"/>
       <c r="C292" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>53</v>
@@ -12789,10 +12844,10 @@
         <v>4</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E293" s="20">
         <v>300</v>
@@ -12890,10 +12945,10 @@
       <c r="A295" s="6"/>
       <c r="B295" s="4"/>
       <c r="C295" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D295" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E295" s="10">
         <v>60</v>
@@ -12993,10 +13048,10 @@
       <c r="A297" s="3"/>
       <c r="B297" s="4"/>
       <c r="C297" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D297" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D297" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="E297" s="10">
         <v>45</v>
@@ -13040,10 +13095,10 @@
       <c r="A298" s="6"/>
       <c r="B298" s="4"/>
       <c r="C298" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E298" s="10">
         <v>60</v>
@@ -13138,10 +13193,10 @@
       <c r="A300" s="7"/>
       <c r="B300" s="8"/>
       <c r="C300" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D300" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E300" s="13">
         <v>80</v>
@@ -13466,10 +13521,10 @@
         <v>3</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E309" s="4">
         <v>90</v>
@@ -13520,10 +13575,10 @@
       <c r="A310" s="22"/>
       <c r="B310" s="4"/>
       <c r="C310" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E310" s="4">
         <v>100</v>
@@ -13676,7 +13731,7 @@
       <c r="A313" s="3"/>
       <c r="B313" s="4"/>
       <c r="C313" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>53</v>
@@ -13732,10 +13787,10 @@
         <v>4</v>
       </c>
       <c r="C314" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D314" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E314" s="18">
         <v>300</v>
@@ -13779,10 +13834,10 @@
       <c r="A315" s="6"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E315" s="4">
         <v>120</v>
@@ -13885,7 +13940,7 @@
         <v>6</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D317" s="10" t="s">
         <v>51</v>
@@ -13987,10 +14042,10 @@
       <c r="A319" s="3"/>
       <c r="B319" s="4"/>
       <c r="C319" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E319" s="10">
         <v>70</v>
@@ -14034,10 +14089,10 @@
       <c r="A320" s="6"/>
       <c r="B320" s="4"/>
       <c r="C320" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D320" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E320" s="10">
         <v>60</v>
@@ -14084,10 +14139,10 @@
         <v>7</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E321" s="10">
         <v>100</v>
@@ -14131,10 +14186,10 @@
       <c r="A322" s="7"/>
       <c r="B322" s="8"/>
       <c r="C322" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D322" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E322" s="13">
         <v>80</v>
@@ -14443,10 +14498,10 @@
         <v>3</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E331" s="4">
         <v>90</v>
@@ -14493,10 +14548,10 @@
       <c r="A332" s="22"/>
       <c r="B332" s="4"/>
       <c r="C332" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E332" s="4">
         <v>100</v>
@@ -14640,7 +14695,7 @@
       <c r="A335" s="3"/>
       <c r="B335" s="4"/>
       <c r="C335" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D335" s="4" t="s">
         <v>53</v>
@@ -14692,7 +14747,7 @@
         <v>4</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D336" s="10" t="s">
         <v>51</v>
@@ -14742,10 +14797,10 @@
       <c r="A337" s="6"/>
       <c r="B337" s="4"/>
       <c r="C337" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D337" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E337" s="10">
         <v>40</v>
@@ -14793,10 +14848,10 @@
       <c r="A338" s="3"/>
       <c r="B338" s="4"/>
       <c r="C338" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D338" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E338" s="27">
         <v>400</v>
@@ -14938,10 +14993,10 @@
       <c r="A341" s="3"/>
       <c r="B341" s="4"/>
       <c r="C341" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D341" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D341" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="E341" s="10">
         <v>45</v>
@@ -14985,10 +15040,10 @@
       <c r="A342" s="6"/>
       <c r="B342" s="4"/>
       <c r="C342" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D342" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E342" s="10">
         <v>60</v>
@@ -15034,10 +15089,10 @@
         <v>7</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E343" s="10">
         <v>100</v>
@@ -15081,10 +15136,10 @@
       <c r="A344" s="7"/>
       <c r="B344" s="8"/>
       <c r="C344" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E344" s="13">
         <v>80</v>
@@ -15386,16 +15441,16 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353" s="22"/>
       <c r="B353" s="4">
         <v>3</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E353" s="4">
         <v>90</v>
@@ -15438,14 +15493,14 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="22"/>
       <c r="B354" s="4"/>
       <c r="C354" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E354" s="4">
         <v>100</v>
@@ -15485,7 +15540,7 @@
       </c>
       <c r="Q354" s="16"/>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355" s="22"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4" t="s">
@@ -15535,7 +15590,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="4"/>
       <c r="C356" s="10" t="s">
@@ -15585,11 +15640,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="4"/>
       <c r="C357" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>53</v>
@@ -15635,16 +15690,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="4">
         <v>4</v>
       </c>
       <c r="C358" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D358" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E358" s="18">
         <v>300</v>
@@ -15684,14 +15739,14 @@
       </c>
       <c r="Q358" s="11"/>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E359" s="4">
         <v>120</v>
@@ -15734,14 +15789,14 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="4"/>
       <c r="C360" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D360" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E360" s="10">
         <v>60</v>
@@ -15781,7 +15836,7 @@
       </c>
       <c r="Q360" s="16"/>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="4">
         <v>5</v>
@@ -15830,32 +15885,32 @@
       </c>
       <c r="Q361" s="11"/>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="4">
         <v>6</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="D362" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E362" s="10">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="F362" s="10">
-        <v>31</v>
+        <v>21.5</v>
       </c>
       <c r="G362" s="10">
-        <v>3.6</v>
+        <v>1.79</v>
       </c>
       <c r="H362" s="10">
-        <v>1</v>
+        <v>1.79</v>
       </c>
       <c r="I362" s="10"/>
       <c r="J362" s="10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K362" s="10">
         <v>1</v>
@@ -15863,42 +15918,42 @@
       <c r="L362" s="10"/>
       <c r="M362" s="4">
         <f>J362*K362*E362</f>
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="N362" s="4">
         <f>J362*K362*F362</f>
-        <v>24.8</v>
+        <v>21.5</v>
       </c>
       <c r="O362" s="4">
         <f>J362*K362*G362</f>
-        <v>2.8800000000000003</v>
+        <v>1.79</v>
       </c>
       <c r="P362" s="5">
         <f>J362*K362*H362</f>
-        <v>0.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q362" s="11"/>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A363" s="3"/>
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A363" s="6"/>
       <c r="B363" s="4"/>
       <c r="C363" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D363" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D363" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="E363" s="10">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F363" s="10">
         <v>1</v>
       </c>
       <c r="G363" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H363" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" s="10"/>
       <c r="J363" s="10">
@@ -15909,200 +15964,3017 @@
       </c>
       <c r="L363" s="10"/>
       <c r="M363" s="4">
-        <f t="shared" ref="M363:M366" si="422">J363*K363*E363</f>
-        <v>45</v>
+        <f t="shared" ref="M363:M364" si="422">J363*K363*E363</f>
+        <v>80</v>
       </c>
       <c r="N363" s="4">
-        <f t="shared" ref="N363:N366" si="423">J363*K363*F363</f>
+        <f t="shared" ref="N363:N364" si="423">J363*K363*F363</f>
         <v>1</v>
       </c>
       <c r="O363" s="4">
-        <f t="shared" ref="O363:O366" si="424">J363*K363*G363</f>
-        <v>3</v>
+        <f t="shared" ref="O363:O364" si="424">J363*K363*G363</f>
+        <v>8</v>
       </c>
       <c r="P363" s="5">
-        <f t="shared" ref="P363:P366" si="425">J363*K363*H363</f>
-        <v>3</v>
-      </c>
-      <c r="Q363" s="11"/>
-    </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P363:P364" si="425">J363*K363*H363</f>
+        <v>2</v>
+      </c>
+      <c r="Q363" s="16">
+        <f t="shared" ref="Q363" si="426">F363/H363</f>
+        <v>0.5</v>
+      </c>
+      <c r="R363" s="18">
+        <f t="shared" ref="R363" si="427">E363/F363</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="4"/>
       <c r="C364" s="10" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D364" s="10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E364" s="10">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="F364" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G364" s="10">
-        <v>0.01</v>
+        <v>8</v>
       </c>
       <c r="H364" s="10">
-        <v>13</v>
-      </c>
-      <c r="I364" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="I364" s="10"/>
       <c r="J364" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K364" s="10">
         <v>1</v>
       </c>
-      <c r="L364" s="4"/>
+      <c r="L364" s="10"/>
       <c r="M364" s="10">
         <f t="shared" si="422"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N364" s="10">
         <f t="shared" si="423"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O364" s="10">
         <f t="shared" si="424"/>
-        <v>0.02</v>
+        <v>8</v>
       </c>
       <c r="P364" s="5">
         <f t="shared" si="425"/>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Q364" s="16"/>
-    </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A365" s="3"/>
-      <c r="B365" s="4">
-        <v>7</v>
-      </c>
+      <c r="R364" s="18"/>
+    </row>
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A365" s="6"/>
+      <c r="B365" s="4"/>
       <c r="C365" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D365" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="D365" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="E365" s="10">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F365" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G365" s="10">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="H365" s="10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I365" s="4"/>
       <c r="J365" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K365" s="10">
         <v>1</v>
       </c>
       <c r="L365" s="4"/>
       <c r="M365" s="10">
-        <f t="shared" si="422"/>
+        <f t="shared" ref="M365:M367" si="428">J365*K365*E365</f>
+        <v>120</v>
+      </c>
+      <c r="N365" s="10">
+        <f t="shared" ref="N365:N367" si="429">J365*K365*F365</f>
+        <v>8</v>
+      </c>
+      <c r="O365" s="10">
+        <f t="shared" ref="O365:O367" si="430">J365*K365*G365</f>
+        <v>0.02</v>
+      </c>
+      <c r="P365" s="5">
+        <f t="shared" ref="P365:P367" si="431">J365*K365*H365</f>
+        <v>26</v>
+      </c>
+      <c r="Q365" s="16"/>
+    </row>
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A366" s="3"/>
+      <c r="B366" s="4">
+        <v>7</v>
+      </c>
+      <c r="C366" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D366" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N365" s="10">
-        <f t="shared" si="423"/>
+      <c r="E366" s="10">
+        <v>100</v>
+      </c>
+      <c r="F366" s="10">
         <v>2</v>
       </c>
-      <c r="O365" s="10">
-        <f t="shared" si="424"/>
+      <c r="G366" s="10">
         <v>2.5</v>
       </c>
-      <c r="P365" s="5">
-        <f t="shared" si="425"/>
+      <c r="H366" s="10">
         <v>17</v>
       </c>
-      <c r="Q365" s="11"/>
-    </row>
-    <row r="366" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="7"/>
-      <c r="B366" s="8"/>
-      <c r="C366" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D366" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E366" s="13">
+      <c r="I366" s="4"/>
+      <c r="J366" s="10">
+        <v>1</v>
+      </c>
+      <c r="K366" s="10">
+        <v>1</v>
+      </c>
+      <c r="L366" s="4"/>
+      <c r="M366" s="10">
+        <f t="shared" si="428"/>
+        <v>100</v>
+      </c>
+      <c r="N366" s="10">
+        <f t="shared" si="429"/>
+        <v>2</v>
+      </c>
+      <c r="O366" s="10">
+        <f t="shared" si="430"/>
+        <v>2.5</v>
+      </c>
+      <c r="P366" s="5">
+        <f t="shared" si="431"/>
+        <v>17</v>
+      </c>
+      <c r="Q366" s="11"/>
+    </row>
+    <row r="367" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="7"/>
+      <c r="B367" s="8"/>
+      <c r="C367" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D367" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E367" s="13">
         <v>80</v>
       </c>
-      <c r="F366" s="13">
+      <c r="F367" s="13">
         <v>12</v>
       </c>
-      <c r="G366" s="13">
+      <c r="G367" s="13">
         <v>1.5</v>
       </c>
-      <c r="H366" s="13">
+      <c r="H367" s="13">
         <v>5</v>
       </c>
-      <c r="I366" s="8"/>
-      <c r="J366" s="13">
-        <v>1</v>
-      </c>
-      <c r="K366" s="13">
-        <v>1</v>
-      </c>
-      <c r="L366" s="8"/>
-      <c r="M366" s="13">
-        <f t="shared" si="422"/>
+      <c r="I367" s="8"/>
+      <c r="J367" s="13">
+        <v>1</v>
+      </c>
+      <c r="K367" s="13">
+        <v>1</v>
+      </c>
+      <c r="L367" s="8"/>
+      <c r="M367" s="13">
+        <f t="shared" si="428"/>
         <v>80</v>
       </c>
-      <c r="N366" s="13">
-        <f t="shared" si="423"/>
+      <c r="N367" s="13">
+        <f t="shared" si="429"/>
         <v>12</v>
       </c>
-      <c r="O366" s="13">
-        <f t="shared" si="424"/>
+      <c r="O367" s="13">
+        <f t="shared" si="430"/>
         <v>1.5</v>
       </c>
-      <c r="P366" s="23">
-        <f t="shared" si="425"/>
+      <c r="P367" s="23">
+        <f t="shared" si="431"/>
         <v>5</v>
       </c>
-      <c r="Q366" s="16"/>
-    </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A367" s="4"/>
-      <c r="B367" s="4"/>
-      <c r="C367" s="10" t="s">
+      <c r="Q367" s="16"/>
+    </row>
+    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A368" s="4"/>
+      <c r="B368" s="4"/>
+      <c r="C368" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D367" s="4"/>
-      <c r="E367" s="4"/>
-      <c r="F367" s="4"/>
-      <c r="G367" s="4"/>
-      <c r="H367" s="4"/>
-      <c r="I367" s="4"/>
-      <c r="J367" s="4"/>
-      <c r="K367" s="4"/>
-      <c r="L367" s="4"/>
-      <c r="M367" s="16">
-        <f>SUM(M349:M366)</f>
-        <v>2076.4</v>
-      </c>
-      <c r="N367" s="16">
-        <f>SUM(N349:N366)</f>
-        <v>168.1</v>
-      </c>
-      <c r="O367" s="16">
-        <f>SUM(O349:O366)</f>
-        <v>46.090000000000011</v>
-      </c>
-      <c r="P367" s="16">
-        <f>SUM(P349:P366)</f>
-        <v>255.6</v>
-      </c>
-      <c r="Q367" s="12">
-        <f>N367/(O367+P367)</f>
-        <v>0.55719447114587817</v>
+      <c r="D368" s="4"/>
+      <c r="E368" s="4"/>
+      <c r="F368" s="4"/>
+      <c r="G368" s="4"/>
+      <c r="H368" s="4"/>
+      <c r="I368" s="4"/>
+      <c r="J368" s="4"/>
+      <c r="K368" s="4"/>
+      <c r="L368" s="4"/>
+      <c r="M368" s="16">
+        <f>SUM(M349:M367)</f>
+        <v>2244.4</v>
+      </c>
+      <c r="N368" s="16">
+        <f>SUM(N349:N367)</f>
+        <v>167.8</v>
+      </c>
+      <c r="O368" s="16">
+        <f>SUM(O349:O367)</f>
+        <v>58.000000000000007</v>
+      </c>
+      <c r="P368" s="16">
+        <f>SUM(P349:P367)</f>
+        <v>271.58999999999997</v>
+      </c>
+      <c r="Q368" s="12">
+        <f>N368/(O368+P368)</f>
+        <v>0.50911738827027531</v>
+      </c>
+    </row>
+    <row r="370" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A371" s="19">
+        <v>43190</v>
+      </c>
+      <c r="B371" s="2"/>
+      <c r="C371" s="17"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="2"/>
+      <c r="G371" s="2"/>
+      <c r="H371" s="2"/>
+      <c r="I371" s="2"/>
+      <c r="J371" s="2"/>
+      <c r="K371" s="2"/>
+      <c r="L371" s="2"/>
+      <c r="M371" s="2"/>
+      <c r="N371" s="2"/>
+      <c r="O371" s="2"/>
+      <c r="P371" s="15"/>
+      <c r="Q371" s="12"/>
+    </row>
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A372" s="3"/>
+      <c r="B372" s="4">
+        <v>1</v>
+      </c>
+      <c r="C372" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D372" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E372" s="4">
+        <v>880</v>
+      </c>
+      <c r="F372" s="10">
+        <v>60</v>
+      </c>
+      <c r="G372" s="10">
+        <v>9</v>
+      </c>
+      <c r="H372" s="4">
+        <v>140</v>
+      </c>
+      <c r="I372" s="4"/>
+      <c r="J372" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="K372" s="4">
+        <v>1</v>
+      </c>
+      <c r="L372" s="4"/>
+      <c r="M372" s="4">
+        <f t="shared" ref="M372:M373" si="432">J372*K372*E372</f>
+        <v>290.40000000000003</v>
+      </c>
+      <c r="N372" s="4">
+        <f t="shared" ref="N372:N373" si="433">J372*K372*F372</f>
+        <v>19.8</v>
+      </c>
+      <c r="O372" s="4">
+        <f t="shared" ref="O372:O373" si="434">J372*K372*G372</f>
+        <v>2.97</v>
+      </c>
+      <c r="P372" s="5">
+        <f t="shared" ref="P372:P373" si="435">J372*K372*H372</f>
+        <v>46.2</v>
+      </c>
+      <c r="Q372" s="11">
+        <f t="shared" ref="Q372" si="436">F372/H372</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A373" s="22"/>
+      <c r="B373" s="4"/>
+      <c r="C373" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E373" s="4">
+        <v>190</v>
+      </c>
+      <c r="F373" s="4">
+        <v>3</v>
+      </c>
+      <c r="G373" s="4">
+        <v>7</v>
+      </c>
+      <c r="H373" s="4">
+        <v>29</v>
+      </c>
+      <c r="I373" s="4"/>
+      <c r="J373" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K373" s="4">
+        <v>1</v>
+      </c>
+      <c r="L373" s="4"/>
+      <c r="M373" s="4">
+        <f t="shared" si="432"/>
+        <v>95</v>
+      </c>
+      <c r="N373" s="4">
+        <f t="shared" si="433"/>
+        <v>1.5</v>
+      </c>
+      <c r="O373" s="4">
+        <f t="shared" si="434"/>
+        <v>3.5</v>
+      </c>
+      <c r="P373" s="5">
+        <f t="shared" si="435"/>
+        <v>14.5</v>
+      </c>
+      <c r="Q373" s="16">
+        <f>F373/H373</f>
+        <v>0.10344827586206896</v>
+      </c>
+    </row>
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A374" s="22"/>
+      <c r="B374" s="4">
+        <v>2</v>
+      </c>
+      <c r="C374" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D374" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E374" s="4">
+        <v>120</v>
+      </c>
+      <c r="F374" s="10">
+        <v>24</v>
+      </c>
+      <c r="G374" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H374" s="4">
+        <v>3</v>
+      </c>
+      <c r="I374" s="4"/>
+      <c r="J374" s="4">
+        <v>1</v>
+      </c>
+      <c r="K374" s="4">
+        <v>1</v>
+      </c>
+      <c r="L374" s="4"/>
+      <c r="M374" s="4">
+        <f>J374*K374*E374</f>
+        <v>120</v>
+      </c>
+      <c r="N374" s="4">
+        <f>J374*K374*F374</f>
+        <v>24</v>
+      </c>
+      <c r="O374" s="4">
+        <f>J374*K374*G374</f>
+        <v>1.5</v>
+      </c>
+      <c r="P374" s="5">
+        <f>J374*K374*H374</f>
+        <v>3</v>
+      </c>
+      <c r="Q374" s="16">
+        <f>F374/H374</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A375" s="6"/>
+      <c r="B375" s="4"/>
+      <c r="C375" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E375" s="4">
+        <v>95</v>
+      </c>
+      <c r="F375" s="4">
+        <v>1</v>
+      </c>
+      <c r="G375" s="4">
+        <v>1</v>
+      </c>
+      <c r="H375" s="4">
+        <v>25</v>
+      </c>
+      <c r="I375" s="10"/>
+      <c r="J375" s="10">
+        <v>1</v>
+      </c>
+      <c r="K375" s="10">
+        <v>1</v>
+      </c>
+      <c r="L375" s="10"/>
+      <c r="M375" s="4">
+        <f t="shared" ref="M375:M384" si="437">J375*K375*E375</f>
+        <v>95</v>
+      </c>
+      <c r="N375" s="4">
+        <f t="shared" ref="N375:N384" si="438">J375*K375*F375</f>
+        <v>1</v>
+      </c>
+      <c r="O375" s="4">
+        <f t="shared" ref="O375:O384" si="439">J375*K375*G375</f>
+        <v>1</v>
+      </c>
+      <c r="P375" s="5">
+        <f t="shared" ref="P375:P384" si="440">J375*K375*H375</f>
+        <v>25</v>
+      </c>
+      <c r="Q375" s="11"/>
+    </row>
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A376" s="22"/>
+      <c r="B376" s="10">
+        <v>3</v>
+      </c>
+      <c r="C376" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D376" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E376" s="4">
+        <v>130</v>
+      </c>
+      <c r="F376" s="4">
+        <v>8</v>
+      </c>
+      <c r="G376" s="4">
+        <v>5</v>
+      </c>
+      <c r="H376" s="10">
+        <v>12</v>
+      </c>
+      <c r="I376" s="4"/>
+      <c r="J376" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K376" s="10">
+        <v>1</v>
+      </c>
+      <c r="L376" s="4"/>
+      <c r="M376" s="4">
+        <f t="shared" si="437"/>
+        <v>65</v>
+      </c>
+      <c r="N376" s="4">
+        <f t="shared" si="438"/>
+        <v>4</v>
+      </c>
+      <c r="O376" s="4">
+        <f t="shared" si="439"/>
+        <v>2.5</v>
+      </c>
+      <c r="P376" s="5">
+        <f t="shared" si="440"/>
+        <v>6</v>
+      </c>
+      <c r="Q376" s="16">
+        <f t="shared" ref="Q376:Q378" si="441">F376/H376</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R376" s="11">
+        <f t="shared" ref="R376" si="442">E376/F376</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A377" s="22"/>
+      <c r="B377" s="4"/>
+      <c r="C377" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D377" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E377" s="10">
+        <v>120</v>
+      </c>
+      <c r="F377" s="10">
+        <v>1</v>
+      </c>
+      <c r="G377" s="10">
+        <v>1</v>
+      </c>
+      <c r="H377" s="10">
+        <v>27</v>
+      </c>
+      <c r="I377" s="4"/>
+      <c r="J377" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="K377" s="10">
+        <v>1</v>
+      </c>
+      <c r="L377" s="4"/>
+      <c r="M377" s="10">
+        <f t="shared" si="437"/>
+        <v>79.2</v>
+      </c>
+      <c r="N377" s="10">
+        <f t="shared" si="438"/>
+        <v>0.66</v>
+      </c>
+      <c r="O377" s="10">
+        <f t="shared" si="439"/>
+        <v>0.66</v>
+      </c>
+      <c r="P377" s="5">
+        <f t="shared" si="440"/>
+        <v>17.82</v>
+      </c>
+      <c r="Q377" s="16">
+        <f t="shared" si="441"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="R377" s="11"/>
+    </row>
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A378" s="22"/>
+      <c r="B378" s="4"/>
+      <c r="C378" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D378" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E378" s="10">
+        <v>210</v>
+      </c>
+      <c r="F378" s="10">
+        <v>7</v>
+      </c>
+      <c r="G378" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H378" s="10">
+        <v>47</v>
+      </c>
+      <c r="I378" s="4"/>
+      <c r="J378" s="10">
+        <v>2</v>
+      </c>
+      <c r="K378" s="10">
+        <v>1</v>
+      </c>
+      <c r="L378" s="4"/>
+      <c r="M378" s="10">
+        <f t="shared" si="437"/>
+        <v>420</v>
+      </c>
+      <c r="N378" s="10">
+        <f t="shared" si="438"/>
+        <v>14</v>
+      </c>
+      <c r="O378" s="10">
+        <f t="shared" si="439"/>
+        <v>3</v>
+      </c>
+      <c r="P378" s="5">
+        <f t="shared" si="440"/>
+        <v>94</v>
+      </c>
+      <c r="Q378" s="16">
+        <f t="shared" si="441"/>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="R378" s="11"/>
+    </row>
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A379" s="3"/>
+      <c r="B379" s="4"/>
+      <c r="C379" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E379" s="4">
+        <v>78</v>
+      </c>
+      <c r="F379" s="10">
+        <v>6</v>
+      </c>
+      <c r="G379" s="10">
+        <v>5</v>
+      </c>
+      <c r="H379" s="4">
+        <v>1</v>
+      </c>
+      <c r="I379" s="4"/>
+      <c r="J379" s="4">
+        <v>1</v>
+      </c>
+      <c r="K379" s="4">
+        <v>1</v>
+      </c>
+      <c r="L379" s="4"/>
+      <c r="M379" s="4">
+        <f t="shared" si="437"/>
+        <v>78</v>
+      </c>
+      <c r="N379" s="4">
+        <f t="shared" si="438"/>
+        <v>6</v>
+      </c>
+      <c r="O379" s="4">
+        <f t="shared" si="439"/>
+        <v>5</v>
+      </c>
+      <c r="P379" s="5">
+        <f t="shared" si="440"/>
+        <v>1</v>
+      </c>
+      <c r="Q379" s="11">
+        <f t="shared" ref="Q379:Q380" si="443">F379/H379</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A380" s="3"/>
+      <c r="B380" s="4"/>
+      <c r="C380" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D380" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E380" s="4">
+        <v>17</v>
+      </c>
+      <c r="F380" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G380" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H380" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I380" s="4"/>
+      <c r="J380" s="4">
+        <v>3</v>
+      </c>
+      <c r="K380" s="4">
+        <v>1</v>
+      </c>
+      <c r="L380" s="4"/>
+      <c r="M380" s="4">
+        <f t="shared" si="437"/>
+        <v>51</v>
+      </c>
+      <c r="N380" s="4">
+        <f t="shared" si="438"/>
+        <v>10.8</v>
+      </c>
+      <c r="O380" s="4">
+        <f t="shared" si="439"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="P380" s="5">
+        <f t="shared" si="440"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Q380" s="11">
+        <f t="shared" si="443"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B381" s="4">
+        <v>4</v>
+      </c>
+      <c r="C381" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E381" s="4">
+        <v>78</v>
+      </c>
+      <c r="F381" s="10">
+        <v>6</v>
+      </c>
+      <c r="G381" s="10">
+        <v>5</v>
+      </c>
+      <c r="H381" s="4">
+        <v>1</v>
+      </c>
+      <c r="I381" s="4"/>
+      <c r="J381" s="4">
+        <v>1</v>
+      </c>
+      <c r="K381" s="4">
+        <v>1</v>
+      </c>
+      <c r="L381" s="4"/>
+      <c r="M381" s="4">
+        <f t="shared" ref="M381" si="444">J381*K381*E381</f>
+        <v>78</v>
+      </c>
+      <c r="N381" s="4">
+        <f t="shared" ref="N381" si="445">J381*K381*F381</f>
+        <v>6</v>
+      </c>
+      <c r="O381" s="4">
+        <f t="shared" ref="O381" si="446">J381*K381*G381</f>
+        <v>5</v>
+      </c>
+      <c r="P381" s="5">
+        <f t="shared" ref="P381" si="447">J381*K381*H381</f>
+        <v>1</v>
+      </c>
+      <c r="Q381" s="11">
+        <f t="shared" ref="Q381" si="448">F381/H381</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A382" s="3"/>
+      <c r="B382" s="4"/>
+      <c r="C382" t="s">
+        <v>118</v>
+      </c>
+      <c r="D382" t="s">
+        <v>90</v>
+      </c>
+      <c r="E382" s="18">
+        <v>140</v>
+      </c>
+      <c r="F382" s="18">
+        <v>26</v>
+      </c>
+      <c r="G382" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="H382" s="18">
+        <v>1.17</v>
+      </c>
+      <c r="I382" s="4"/>
+      <c r="J382" s="26">
+        <v>1</v>
+      </c>
+      <c r="K382" s="26">
+        <v>1</v>
+      </c>
+      <c r="L382" s="4"/>
+      <c r="M382" s="10">
+        <f t="shared" si="437"/>
+        <v>140</v>
+      </c>
+      <c r="N382" s="10">
+        <f t="shared" si="438"/>
+        <v>26</v>
+      </c>
+      <c r="O382" s="10">
+        <f t="shared" si="439"/>
+        <v>2.9</v>
+      </c>
+      <c r="P382" s="5">
+        <f t="shared" si="440"/>
+        <v>1.17</v>
+      </c>
+      <c r="Q382" s="11"/>
+    </row>
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A383" s="6"/>
+      <c r="B383" s="4"/>
+      <c r="C383" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E383" s="4">
+        <v>111</v>
+      </c>
+      <c r="F383" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="G383" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H383" s="4">
+        <v>23</v>
+      </c>
+      <c r="I383" s="4"/>
+      <c r="J383" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K383" s="4">
+        <v>1</v>
+      </c>
+      <c r="L383" s="4"/>
+      <c r="M383" s="4">
+        <f t="shared" si="437"/>
+        <v>166.5</v>
+      </c>
+      <c r="N383" s="4">
+        <f t="shared" si="438"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="O383" s="4">
+        <f t="shared" si="439"/>
+        <v>1.35</v>
+      </c>
+      <c r="P383" s="5">
+        <f t="shared" si="440"/>
+        <v>34.5</v>
+      </c>
+      <c r="Q383" s="11">
+        <f t="shared" ref="Q383" si="449">F383/H383</f>
+        <v>0.11304347826086956</v>
+      </c>
+    </row>
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A384" s="6"/>
+      <c r="B384" s="4">
+        <v>5</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E384" s="4">
+        <v>95</v>
+      </c>
+      <c r="F384" s="4">
+        <v>1</v>
+      </c>
+      <c r="G384" s="4">
+        <v>1</v>
+      </c>
+      <c r="H384" s="4">
+        <v>25</v>
+      </c>
+      <c r="I384" s="10"/>
+      <c r="J384" s="10">
+        <v>1</v>
+      </c>
+      <c r="K384" s="10">
+        <v>1</v>
+      </c>
+      <c r="L384" s="10"/>
+      <c r="M384" s="4">
+        <f t="shared" si="437"/>
+        <v>95</v>
+      </c>
+      <c r="N384" s="4">
+        <f t="shared" si="438"/>
+        <v>1</v>
+      </c>
+      <c r="O384" s="4">
+        <f t="shared" si="439"/>
+        <v>1</v>
+      </c>
+      <c r="P384" s="5">
+        <f t="shared" si="440"/>
+        <v>25</v>
+      </c>
+      <c r="Q384" s="11"/>
+    </row>
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A385" s="6"/>
+      <c r="B385" s="4">
+        <v>6</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D385" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E385" s="10">
+        <v>165</v>
+      </c>
+      <c r="F385" s="10">
+        <v>31</v>
+      </c>
+      <c r="G385" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="H385" s="10">
+        <v>1</v>
+      </c>
+      <c r="I385" s="10"/>
+      <c r="J385" s="10">
+        <v>1</v>
+      </c>
+      <c r="K385" s="10">
+        <v>1</v>
+      </c>
+      <c r="L385" s="10"/>
+      <c r="M385" s="4">
+        <f>J385*K385*E385</f>
+        <v>165</v>
+      </c>
+      <c r="N385" s="4">
+        <f>J385*K385*F385</f>
+        <v>31</v>
+      </c>
+      <c r="O385" s="4">
+        <f>J385*K385*G385</f>
+        <v>3.6</v>
+      </c>
+      <c r="P385" s="5">
+        <f>J385*K385*H385</f>
+        <v>1</v>
+      </c>
+      <c r="Q385" s="11"/>
+    </row>
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A386" s="3"/>
+      <c r="B386" s="4"/>
+      <c r="C386" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D386" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E386" s="10">
+        <v>45</v>
+      </c>
+      <c r="F386" s="10">
+        <v>1</v>
+      </c>
+      <c r="G386" s="10">
+        <v>3</v>
+      </c>
+      <c r="H386" s="10">
+        <v>3</v>
+      </c>
+      <c r="I386" s="10"/>
+      <c r="J386" s="10">
+        <v>1</v>
+      </c>
+      <c r="K386" s="10">
+        <v>1</v>
+      </c>
+      <c r="L386" s="10"/>
+      <c r="M386" s="4">
+        <f t="shared" ref="M386:M389" si="450">J386*K386*E386</f>
+        <v>45</v>
+      </c>
+      <c r="N386" s="4">
+        <f t="shared" ref="N386:N389" si="451">J386*K386*F386</f>
+        <v>1</v>
+      </c>
+      <c r="O386" s="4">
+        <f t="shared" ref="O386:O389" si="452">J386*K386*G386</f>
+        <v>3</v>
+      </c>
+      <c r="P386" s="5">
+        <f t="shared" ref="P386:P389" si="453">J386*K386*H386</f>
+        <v>3</v>
+      </c>
+      <c r="Q386" s="11"/>
+    </row>
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A387" s="6"/>
+      <c r="B387" s="4"/>
+      <c r="C387" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D387" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E387" s="10">
+        <v>60</v>
+      </c>
+      <c r="F387" s="10">
+        <v>4</v>
+      </c>
+      <c r="G387" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="H387" s="10">
+        <v>13</v>
+      </c>
+      <c r="I387" s="4"/>
+      <c r="J387" s="10">
+        <v>2</v>
+      </c>
+      <c r="K387" s="10">
+        <v>1</v>
+      </c>
+      <c r="L387" s="4"/>
+      <c r="M387" s="10">
+        <f t="shared" si="450"/>
+        <v>120</v>
+      </c>
+      <c r="N387" s="10">
+        <f t="shared" si="451"/>
+        <v>8</v>
+      </c>
+      <c r="O387" s="10">
+        <f t="shared" si="452"/>
+        <v>0.02</v>
+      </c>
+      <c r="P387" s="5">
+        <f t="shared" si="453"/>
+        <v>26</v>
+      </c>
+      <c r="Q387" s="16"/>
+    </row>
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A388" s="3"/>
+      <c r="B388" s="4">
+        <v>7</v>
+      </c>
+      <c r="C388" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E388" s="10">
+        <v>100</v>
+      </c>
+      <c r="F388" s="10">
+        <v>2</v>
+      </c>
+      <c r="G388" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="H388" s="10">
+        <v>17</v>
+      </c>
+      <c r="I388" s="4"/>
+      <c r="J388" s="10">
+        <v>1</v>
+      </c>
+      <c r="K388" s="10">
+        <v>1</v>
+      </c>
+      <c r="L388" s="4"/>
+      <c r="M388" s="10">
+        <f t="shared" si="450"/>
+        <v>100</v>
+      </c>
+      <c r="N388" s="10">
+        <f t="shared" si="451"/>
+        <v>2</v>
+      </c>
+      <c r="O388" s="10">
+        <f t="shared" si="452"/>
+        <v>2.5</v>
+      </c>
+      <c r="P388" s="5">
+        <f t="shared" si="453"/>
+        <v>17</v>
+      </c>
+      <c r="Q388" s="11"/>
+    </row>
+    <row r="389" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="7"/>
+      <c r="B389" s="8"/>
+      <c r="C389" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D389" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E389" s="13">
+        <v>45</v>
+      </c>
+      <c r="F389" s="13">
+        <v>11</v>
+      </c>
+      <c r="G389" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="H389" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="I389" s="8"/>
+      <c r="J389" s="13">
+        <v>1</v>
+      </c>
+      <c r="K389" s="13">
+        <v>1</v>
+      </c>
+      <c r="L389" s="8"/>
+      <c r="M389" s="13">
+        <f t="shared" si="450"/>
+        <v>45</v>
+      </c>
+      <c r="N389" s="13">
+        <f t="shared" si="451"/>
+        <v>11</v>
+      </c>
+      <c r="O389" s="13">
+        <f t="shared" si="452"/>
+        <v>0.01</v>
+      </c>
+      <c r="P389" s="23">
+        <f t="shared" si="453"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q389" s="16"/>
+    </row>
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A390" s="4"/>
+      <c r="B390" s="4"/>
+      <c r="C390" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D390" s="4"/>
+      <c r="E390" s="4"/>
+      <c r="F390" s="4"/>
+      <c r="G390" s="4"/>
+      <c r="H390" s="4"/>
+      <c r="I390" s="4"/>
+      <c r="J390" s="4"/>
+      <c r="K390" s="4"/>
+      <c r="L390" s="4"/>
+      <c r="M390" s="16">
+        <f>SUM(M372:M389)</f>
+        <v>2248.1000000000004</v>
+      </c>
+      <c r="N390" s="16">
+        <f>SUM(N372:N389)</f>
+        <v>171.66</v>
+      </c>
+      <c r="O390" s="16">
+        <f>SUM(O372:O389)</f>
+        <v>39.81</v>
+      </c>
+      <c r="P390" s="16">
+        <f>SUM(P372:P389)</f>
+        <v>316.79999999999995</v>
+      </c>
+      <c r="Q390" s="12">
+        <f>N390/(O390+P390)</f>
+        <v>0.48136619836796507</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A393" s="19">
+        <v>43191</v>
+      </c>
+      <c r="B393" s="2"/>
+      <c r="C393" s="17"/>
+      <c r="D393" s="2"/>
+      <c r="E393" s="2"/>
+      <c r="F393" s="2"/>
+      <c r="G393" s="2"/>
+      <c r="H393" s="2"/>
+      <c r="I393" s="2"/>
+      <c r="J393" s="2"/>
+      <c r="K393" s="2"/>
+      <c r="L393" s="2"/>
+      <c r="M393" s="2"/>
+      <c r="N393" s="2"/>
+      <c r="O393" s="2"/>
+      <c r="P393" s="15"/>
+      <c r="Q393" s="12"/>
+    </row>
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A394" s="22"/>
+      <c r="B394" s="4">
+        <v>1</v>
+      </c>
+      <c r="C394" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D394" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E394" s="4">
+        <v>120</v>
+      </c>
+      <c r="F394" s="10">
+        <v>24</v>
+      </c>
+      <c r="G394" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H394" s="4">
+        <v>3</v>
+      </c>
+      <c r="I394" s="4"/>
+      <c r="J394" s="4">
+        <v>1</v>
+      </c>
+      <c r="K394" s="4">
+        <v>1</v>
+      </c>
+      <c r="L394" s="4"/>
+      <c r="M394" s="4">
+        <f>J394*K394*E394</f>
+        <v>120</v>
+      </c>
+      <c r="N394" s="4">
+        <f>J394*K394*F394</f>
+        <v>24</v>
+      </c>
+      <c r="O394" s="4">
+        <f>J394*K394*G394</f>
+        <v>1.5</v>
+      </c>
+      <c r="P394" s="5">
+        <f>J394*K394*H394</f>
+        <v>3</v>
+      </c>
+      <c r="Q394" s="16">
+        <f>F394/H394</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A395" s="22"/>
+      <c r="B395" s="4"/>
+      <c r="C395" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D395" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E395" s="4">
+        <v>190</v>
+      </c>
+      <c r="F395" s="4">
+        <v>3</v>
+      </c>
+      <c r="G395" s="4">
+        <v>7</v>
+      </c>
+      <c r="H395" s="4">
+        <v>29</v>
+      </c>
+      <c r="I395" s="4"/>
+      <c r="J395" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K395" s="4">
+        <v>1</v>
+      </c>
+      <c r="L395" s="4"/>
+      <c r="M395" s="4">
+        <f t="shared" ref="M395" si="454">J395*K395*E395</f>
+        <v>95</v>
+      </c>
+      <c r="N395" s="4">
+        <f t="shared" ref="N395" si="455">J395*K395*F395</f>
+        <v>1.5</v>
+      </c>
+      <c r="O395" s="4">
+        <f t="shared" ref="O395" si="456">J395*K395*G395</f>
+        <v>3.5</v>
+      </c>
+      <c r="P395" s="5">
+        <f t="shared" ref="P395" si="457">J395*K395*H395</f>
+        <v>14.5</v>
+      </c>
+      <c r="Q395" s="16">
+        <f>F395/H395</f>
+        <v>0.10344827586206896</v>
+      </c>
+    </row>
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A396" s="22"/>
+      <c r="B396" s="4">
+        <v>2</v>
+      </c>
+      <c r="C396" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D396" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E396" s="4">
+        <v>120</v>
+      </c>
+      <c r="F396" s="10">
+        <v>24</v>
+      </c>
+      <c r="G396" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H396" s="4">
+        <v>3</v>
+      </c>
+      <c r="I396" s="4"/>
+      <c r="J396" s="4">
+        <v>1</v>
+      </c>
+      <c r="K396" s="4">
+        <v>1</v>
+      </c>
+      <c r="L396" s="4"/>
+      <c r="M396" s="4">
+        <f>J396*K396*E396</f>
+        <v>120</v>
+      </c>
+      <c r="N396" s="4">
+        <f>J396*K396*F396</f>
+        <v>24</v>
+      </c>
+      <c r="O396" s="4">
+        <f>J396*K396*G396</f>
+        <v>1.5</v>
+      </c>
+      <c r="P396" s="5">
+        <f>J396*K396*H396</f>
+        <v>3</v>
+      </c>
+      <c r="Q396" s="16">
+        <f>F396/H396</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A397" s="6"/>
+      <c r="B397" s="4"/>
+      <c r="C397" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D397" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E397" s="4">
+        <v>95</v>
+      </c>
+      <c r="F397" s="4">
+        <v>1</v>
+      </c>
+      <c r="G397" s="4">
+        <v>1</v>
+      </c>
+      <c r="H397" s="4">
+        <v>25</v>
+      </c>
+      <c r="I397" s="10"/>
+      <c r="J397" s="10">
+        <v>1</v>
+      </c>
+      <c r="K397" s="10">
+        <v>1</v>
+      </c>
+      <c r="L397" s="10"/>
+      <c r="M397" s="4">
+        <f t="shared" ref="M397:M405" si="458">J397*K397*E397</f>
+        <v>95</v>
+      </c>
+      <c r="N397" s="4">
+        <f t="shared" ref="N397:N405" si="459">J397*K397*F397</f>
+        <v>1</v>
+      </c>
+      <c r="O397" s="4">
+        <f t="shared" ref="O397:O405" si="460">J397*K397*G397</f>
+        <v>1</v>
+      </c>
+      <c r="P397" s="5">
+        <f t="shared" ref="P397:P405" si="461">J397*K397*H397</f>
+        <v>25</v>
+      </c>
+      <c r="Q397" s="11"/>
+    </row>
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A398" s="22"/>
+      <c r="B398" s="4">
+        <v>3</v>
+      </c>
+      <c r="C398" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E398" s="4">
+        <v>90</v>
+      </c>
+      <c r="F398" s="4">
+        <v>8</v>
+      </c>
+      <c r="G398" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H398" s="10">
+        <v>13</v>
+      </c>
+      <c r="I398" s="4"/>
+      <c r="J398" s="10">
+        <v>1</v>
+      </c>
+      <c r="K398" s="10">
+        <v>1</v>
+      </c>
+      <c r="L398" s="4"/>
+      <c r="M398" s="4">
+        <f t="shared" si="458"/>
+        <v>90</v>
+      </c>
+      <c r="N398" s="4">
+        <f t="shared" si="459"/>
+        <v>8</v>
+      </c>
+      <c r="O398" s="4">
+        <f t="shared" si="460"/>
+        <v>0.01</v>
+      </c>
+      <c r="P398" s="5">
+        <f t="shared" si="461"/>
+        <v>13</v>
+      </c>
+      <c r="Q398" s="16">
+        <f t="shared" ref="Q398" si="462">F398/H398</f>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A399" s="22"/>
+      <c r="B399" s="4"/>
+      <c r="C399" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D399" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E399" s="10">
+        <v>210</v>
+      </c>
+      <c r="F399" s="10">
+        <v>7</v>
+      </c>
+      <c r="G399" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H399" s="10">
+        <v>47</v>
+      </c>
+      <c r="I399" s="4"/>
+      <c r="J399" s="10">
+        <v>2</v>
+      </c>
+      <c r="K399" s="10">
+        <v>1</v>
+      </c>
+      <c r="L399" s="4"/>
+      <c r="M399" s="10">
+        <f t="shared" si="458"/>
+        <v>420</v>
+      </c>
+      <c r="N399" s="10">
+        <f t="shared" si="459"/>
+        <v>14</v>
+      </c>
+      <c r="O399" s="10">
+        <f t="shared" si="460"/>
+        <v>3</v>
+      </c>
+      <c r="P399" s="5">
+        <f t="shared" si="461"/>
+        <v>94</v>
+      </c>
+      <c r="Q399" s="16">
+        <f t="shared" ref="Q399:Q402" si="463">F399/H399</f>
+        <v>0.14893617021276595</v>
+      </c>
+    </row>
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A400" s="6"/>
+      <c r="B400" s="4"/>
+      <c r="C400" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D400" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E400" s="4">
+        <v>95</v>
+      </c>
+      <c r="F400" s="4">
+        <v>1</v>
+      </c>
+      <c r="G400" s="4">
+        <v>1</v>
+      </c>
+      <c r="H400" s="4">
+        <v>25</v>
+      </c>
+      <c r="I400" s="10"/>
+      <c r="J400" s="10">
+        <v>1</v>
+      </c>
+      <c r="K400" s="10">
+        <v>1</v>
+      </c>
+      <c r="L400" s="10"/>
+      <c r="M400" s="4">
+        <f t="shared" ref="M400" si="464">J400*K400*E400</f>
+        <v>95</v>
+      </c>
+      <c r="N400" s="4">
+        <f t="shared" ref="N400" si="465">J400*K400*F400</f>
+        <v>1</v>
+      </c>
+      <c r="O400" s="4">
+        <f t="shared" ref="O400" si="466">J400*K400*G400</f>
+        <v>1</v>
+      </c>
+      <c r="P400" s="5">
+        <f t="shared" ref="P400" si="467">J400*K400*H400</f>
+        <v>25</v>
+      </c>
+      <c r="Q400" s="11"/>
+    </row>
+    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A401" s="3"/>
+      <c r="B401" s="4"/>
+      <c r="C401" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D401" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E401" s="4">
+        <v>17</v>
+      </c>
+      <c r="F401" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G401" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H401" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I401" s="4"/>
+      <c r="J401" s="4">
+        <v>4</v>
+      </c>
+      <c r="K401" s="4">
+        <v>1</v>
+      </c>
+      <c r="L401" s="4"/>
+      <c r="M401" s="4">
+        <f t="shared" si="458"/>
+        <v>68</v>
+      </c>
+      <c r="N401" s="4">
+        <f t="shared" si="459"/>
+        <v>14.4</v>
+      </c>
+      <c r="O401" s="4">
+        <f t="shared" si="460"/>
+        <v>0.4</v>
+      </c>
+      <c r="P401" s="5">
+        <f t="shared" si="461"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q401" s="11">
+        <f t="shared" si="463"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A402" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B402" s="4">
+        <v>4</v>
+      </c>
+      <c r="C402" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D402" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E402" s="4">
+        <v>78</v>
+      </c>
+      <c r="F402" s="10">
+        <v>6</v>
+      </c>
+      <c r="G402" s="10">
+        <v>5</v>
+      </c>
+      <c r="H402" s="4">
+        <v>1</v>
+      </c>
+      <c r="I402" s="4"/>
+      <c r="J402" s="4">
+        <v>1</v>
+      </c>
+      <c r="K402" s="4">
+        <v>1</v>
+      </c>
+      <c r="L402" s="4"/>
+      <c r="M402" s="4">
+        <f t="shared" si="458"/>
+        <v>78</v>
+      </c>
+      <c r="N402" s="4">
+        <f t="shared" si="459"/>
+        <v>6</v>
+      </c>
+      <c r="O402" s="4">
+        <f t="shared" si="460"/>
+        <v>5</v>
+      </c>
+      <c r="P402" s="5">
+        <f t="shared" si="461"/>
+        <v>1</v>
+      </c>
+      <c r="Q402" s="11">
+        <f t="shared" si="463"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A403" s="6"/>
+      <c r="B403" s="4"/>
+      <c r="C403" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D403" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E403" s="10">
+        <v>82</v>
+      </c>
+      <c r="F403" s="10">
+        <v>18</v>
+      </c>
+      <c r="G403" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="H403" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I403" s="10"/>
+      <c r="J403" s="10">
+        <v>1</v>
+      </c>
+      <c r="K403" s="10">
+        <v>1</v>
+      </c>
+      <c r="L403" s="10"/>
+      <c r="M403" s="4">
+        <f>J403*K403*E403</f>
+        <v>82</v>
+      </c>
+      <c r="N403" s="4">
+        <f>J403*K403*F403</f>
+        <v>18</v>
+      </c>
+      <c r="O403" s="4">
+        <f>J403*K403*G403</f>
+        <v>0.7</v>
+      </c>
+      <c r="P403" s="5">
+        <f>J403*K403*H403</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q403" s="11"/>
+      <c r="R403" s="18"/>
+    </row>
+    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A404" s="6"/>
+      <c r="B404" s="4"/>
+      <c r="C404" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D404" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E404" s="4">
+        <v>111</v>
+      </c>
+      <c r="F404" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="G404" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H404" s="4">
+        <v>23</v>
+      </c>
+      <c r="I404" s="4"/>
+      <c r="J404" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K404" s="4">
+        <v>1</v>
+      </c>
+      <c r="L404" s="4"/>
+      <c r="M404" s="4">
+        <f t="shared" si="458"/>
+        <v>166.5</v>
+      </c>
+      <c r="N404" s="4">
+        <f t="shared" si="459"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="O404" s="4">
+        <f t="shared" si="460"/>
+        <v>1.35</v>
+      </c>
+      <c r="P404" s="5">
+        <f t="shared" si="461"/>
+        <v>34.5</v>
+      </c>
+      <c r="Q404" s="11">
+        <f t="shared" ref="Q404:Q405" si="468">F404/H404</f>
+        <v>0.11304347826086956</v>
+      </c>
+    </row>
+    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A405" s="6"/>
+      <c r="B405" s="4"/>
+      <c r="C405" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E405" s="4">
+        <v>105</v>
+      </c>
+      <c r="F405" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="G405" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="H405" s="4">
+        <v>27</v>
+      </c>
+      <c r="I405" s="4"/>
+      <c r="J405" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K405" s="4">
+        <v>1</v>
+      </c>
+      <c r="L405" s="4"/>
+      <c r="M405" s="4">
+        <f t="shared" si="458"/>
+        <v>52.5</v>
+      </c>
+      <c r="N405" s="4">
+        <f t="shared" si="459"/>
+        <v>1.35</v>
+      </c>
+      <c r="O405" s="4">
+        <f t="shared" si="460"/>
+        <v>0.2</v>
+      </c>
+      <c r="P405" s="5">
+        <f t="shared" si="461"/>
+        <v>13.5</v>
+      </c>
+      <c r="Q405" s="11">
+        <f t="shared" si="468"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A406" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B406" s="4">
+        <v>6</v>
+      </c>
+      <c r="C406" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D406" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E406" s="10">
+        <v>112</v>
+      </c>
+      <c r="F406" s="10">
+        <v>23</v>
+      </c>
+      <c r="G406" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H406" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I406" s="10"/>
+      <c r="J406" s="10">
+        <v>1</v>
+      </c>
+      <c r="K406" s="10">
+        <v>1</v>
+      </c>
+      <c r="L406" s="10"/>
+      <c r="M406" s="4">
+        <f>J406*K406*E406</f>
+        <v>112</v>
+      </c>
+      <c r="N406" s="4">
+        <f>J406*K406*F406</f>
+        <v>23</v>
+      </c>
+      <c r="O406" s="4">
+        <f>J406*K406*G406</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P406" s="5">
+        <f>J406*K406*H406</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q406" s="11"/>
+    </row>
+    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A407" s="6"/>
+      <c r="B407" s="4"/>
+      <c r="C407" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D407" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E407" s="10">
+        <v>40</v>
+      </c>
+      <c r="F407" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G407" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="H407" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="I407" s="4"/>
+      <c r="J407" s="10">
+        <v>2</v>
+      </c>
+      <c r="K407" s="10">
+        <v>1</v>
+      </c>
+      <c r="L407" s="4"/>
+      <c r="M407" s="10">
+        <f t="shared" ref="M407" si="469">J407*K407*E407</f>
+        <v>80</v>
+      </c>
+      <c r="N407" s="10">
+        <f t="shared" ref="N407" si="470">J407*K407*F407</f>
+        <v>0.02</v>
+      </c>
+      <c r="O407" s="10">
+        <f t="shared" ref="O407" si="471">J407*K407*G407</f>
+        <v>9</v>
+      </c>
+      <c r="P407" s="5">
+        <f t="shared" ref="P407" si="472">J407*K407*H407</f>
+        <v>0.02</v>
+      </c>
+      <c r="Q407" s="11">
+        <f t="shared" ref="Q407" si="473">F407/H407</f>
+        <v>1</v>
+      </c>
+      <c r="R407" s="18"/>
+    </row>
+    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A408" s="6"/>
+      <c r="B408" s="4"/>
+      <c r="C408" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D408" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E408" s="10">
+        <v>40</v>
+      </c>
+      <c r="F408" s="10">
+        <v>2</v>
+      </c>
+      <c r="G408" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="H408" s="10">
+        <v>2</v>
+      </c>
+      <c r="I408" s="10"/>
+      <c r="J408" s="10">
+        <v>2</v>
+      </c>
+      <c r="K408" s="10">
+        <v>1</v>
+      </c>
+      <c r="L408" s="10"/>
+      <c r="M408" s="10">
+        <f t="shared" ref="M408" si="474">J408*K408*E408</f>
+        <v>80</v>
+      </c>
+      <c r="N408" s="10">
+        <f t="shared" ref="N408" si="475">J408*K408*F408</f>
+        <v>4</v>
+      </c>
+      <c r="O408" s="10">
+        <f t="shared" ref="O408" si="476">J408*K408*G408</f>
+        <v>5</v>
+      </c>
+      <c r="P408" s="5">
+        <f t="shared" ref="P408" si="477">J408*K408*H408</f>
+        <v>4</v>
+      </c>
+      <c r="Q408" s="11"/>
+    </row>
+    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A409" s="6"/>
+      <c r="B409" s="4"/>
+      <c r="C409" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D409" s="10"/>
+      <c r="E409" s="10"/>
+      <c r="F409" s="10"/>
+      <c r="G409" s="10"/>
+      <c r="H409" s="10"/>
+      <c r="I409" s="10"/>
+      <c r="J409" s="10"/>
+      <c r="K409" s="10"/>
+      <c r="L409" s="10"/>
+      <c r="M409" s="10"/>
+      <c r="N409" s="10"/>
+      <c r="O409" s="10"/>
+      <c r="P409" s="5"/>
+      <c r="Q409" s="11"/>
+    </row>
+    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A410" s="6"/>
+      <c r="B410" s="4"/>
+      <c r="C410" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D410" s="10"/>
+      <c r="E410" s="10"/>
+      <c r="F410" s="10"/>
+      <c r="G410" s="10"/>
+      <c r="H410" s="10"/>
+      <c r="I410" s="10"/>
+      <c r="J410" s="10"/>
+      <c r="K410" s="10"/>
+      <c r="L410" s="10"/>
+      <c r="M410" s="10"/>
+      <c r="N410" s="10"/>
+      <c r="O410" s="10"/>
+      <c r="P410" s="5"/>
+      <c r="Q410" s="11"/>
+    </row>
+    <row r="411" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="7"/>
+      <c r="B411" s="8">
+        <v>7</v>
+      </c>
+      <c r="C411" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D411" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E411" s="13">
+        <v>120</v>
+      </c>
+      <c r="F411" s="13">
+        <v>12</v>
+      </c>
+      <c r="G411" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="H411" s="13">
+        <v>18</v>
+      </c>
+      <c r="I411" s="8"/>
+      <c r="J411" s="13">
+        <v>1</v>
+      </c>
+      <c r="K411" s="13">
+        <v>1</v>
+      </c>
+      <c r="L411" s="8"/>
+      <c r="M411" s="13">
+        <f t="shared" ref="M411" si="478">J411*K411*E411</f>
+        <v>120</v>
+      </c>
+      <c r="N411" s="13">
+        <f t="shared" ref="N411" si="479">J411*K411*F411</f>
+        <v>12</v>
+      </c>
+      <c r="O411" s="13">
+        <f t="shared" ref="O411" si="480">J411*K411*G411</f>
+        <v>0.01</v>
+      </c>
+      <c r="P411" s="23">
+        <f t="shared" ref="P411" si="481">J411*K411*H411</f>
+        <v>18</v>
+      </c>
+      <c r="Q411" s="16"/>
+    </row>
+    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A412" s="4"/>
+      <c r="B412" s="4"/>
+      <c r="C412" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D412" s="4"/>
+      <c r="E412" s="4"/>
+      <c r="F412" s="4"/>
+      <c r="G412" s="4"/>
+      <c r="H412" s="4"/>
+      <c r="I412" s="4"/>
+      <c r="J412" s="4"/>
+      <c r="K412" s="4"/>
+      <c r="L412" s="4"/>
+      <c r="M412" s="16">
+        <f>SUM(M394:M411)</f>
+        <v>1874</v>
+      </c>
+      <c r="N412" s="16">
+        <f>SUM(N394:N411)</f>
+        <v>156.17000000000002</v>
+      </c>
+      <c r="O412" s="16">
+        <f>SUM(O394:O411)</f>
+        <v>35.47</v>
+      </c>
+      <c r="P412" s="16">
+        <f>SUM(P394:P411)</f>
+        <v>249.34</v>
+      </c>
+      <c r="Q412" s="12">
+        <f>N412/(O412+P412)</f>
+        <v>0.54833046592465162</v>
+      </c>
+    </row>
+    <row r="413" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A414" s="19">
+        <v>43192</v>
+      </c>
+      <c r="B414" s="2"/>
+      <c r="C414" s="17"/>
+      <c r="D414" s="2"/>
+      <c r="E414" s="2"/>
+      <c r="F414" s="2"/>
+      <c r="G414" s="2"/>
+      <c r="H414" s="2"/>
+      <c r="I414" s="2"/>
+      <c r="J414" s="2"/>
+      <c r="K414" s="2"/>
+      <c r="L414" s="2"/>
+      <c r="M414" s="2"/>
+      <c r="N414" s="2"/>
+      <c r="O414" s="2"/>
+      <c r="P414" s="15"/>
+      <c r="Q414" s="12"/>
+    </row>
+    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A415" s="3"/>
+      <c r="B415" s="4">
+        <v>1</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D415" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E415" s="4">
+        <v>880</v>
+      </c>
+      <c r="F415" s="10">
+        <v>60</v>
+      </c>
+      <c r="G415" s="10">
+        <v>9</v>
+      </c>
+      <c r="H415" s="4">
+        <v>140</v>
+      </c>
+      <c r="I415" s="4"/>
+      <c r="J415" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="K415" s="4">
+        <v>1</v>
+      </c>
+      <c r="L415" s="4"/>
+      <c r="M415" s="4">
+        <f t="shared" ref="M415:M416" si="482">J415*K415*E415</f>
+        <v>290.40000000000003</v>
+      </c>
+      <c r="N415" s="4">
+        <f t="shared" ref="N415:N416" si="483">J415*K415*F415</f>
+        <v>19.8</v>
+      </c>
+      <c r="O415" s="4">
+        <f t="shared" ref="O415:O416" si="484">J415*K415*G415</f>
+        <v>2.97</v>
+      </c>
+      <c r="P415" s="5">
+        <f t="shared" ref="P415:P416" si="485">J415*K415*H415</f>
+        <v>46.2</v>
+      </c>
+      <c r="Q415" s="11">
+        <f t="shared" ref="Q415" si="486">F415/H415</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A416" s="22"/>
+      <c r="B416" s="4"/>
+      <c r="C416" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D416" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E416" s="4">
+        <v>190</v>
+      </c>
+      <c r="F416" s="4">
+        <v>3</v>
+      </c>
+      <c r="G416" s="4">
+        <v>7</v>
+      </c>
+      <c r="H416" s="4">
+        <v>29</v>
+      </c>
+      <c r="I416" s="4"/>
+      <c r="J416" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K416" s="4">
+        <v>1</v>
+      </c>
+      <c r="L416" s="4"/>
+      <c r="M416" s="4">
+        <f t="shared" si="482"/>
+        <v>95</v>
+      </c>
+      <c r="N416" s="4">
+        <f t="shared" si="483"/>
+        <v>1.5</v>
+      </c>
+      <c r="O416" s="4">
+        <f t="shared" si="484"/>
+        <v>3.5</v>
+      </c>
+      <c r="P416" s="5">
+        <f t="shared" si="485"/>
+        <v>14.5</v>
+      </c>
+      <c r="Q416" s="16">
+        <f>F416/H416</f>
+        <v>0.10344827586206896</v>
+      </c>
+    </row>
+    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A417" s="22"/>
+      <c r="B417" s="4">
+        <v>2</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E417" s="4">
+        <v>120</v>
+      </c>
+      <c r="F417" s="10">
+        <v>24</v>
+      </c>
+      <c r="G417" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="H417" s="4">
+        <v>3</v>
+      </c>
+      <c r="I417" s="4"/>
+      <c r="J417" s="4">
+        <v>1</v>
+      </c>
+      <c r="K417" s="4">
+        <v>1</v>
+      </c>
+      <c r="L417" s="4"/>
+      <c r="M417" s="4">
+        <f>J417*K417*E417</f>
+        <v>120</v>
+      </c>
+      <c r="N417" s="4">
+        <f>J417*K417*F417</f>
+        <v>24</v>
+      </c>
+      <c r="O417" s="4">
+        <f>J417*K417*G417</f>
+        <v>1.5</v>
+      </c>
+      <c r="P417" s="5">
+        <f>J417*K417*H417</f>
+        <v>3</v>
+      </c>
+      <c r="Q417" s="16">
+        <f>F417/H417</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A418" s="6"/>
+      <c r="B418" s="4"/>
+      <c r="C418" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E418" s="4">
+        <v>95</v>
+      </c>
+      <c r="F418" s="4">
+        <v>1</v>
+      </c>
+      <c r="G418" s="4">
+        <v>1</v>
+      </c>
+      <c r="H418" s="4">
+        <v>25</v>
+      </c>
+      <c r="I418" s="10"/>
+      <c r="J418" s="10">
+        <v>1</v>
+      </c>
+      <c r="K418" s="10">
+        <v>1</v>
+      </c>
+      <c r="L418" s="10"/>
+      <c r="M418" s="4">
+        <f t="shared" ref="M418" si="487">J418*K418*E418</f>
+        <v>95</v>
+      </c>
+      <c r="N418" s="4">
+        <f t="shared" ref="N418" si="488">J418*K418*F418</f>
+        <v>1</v>
+      </c>
+      <c r="O418" s="4">
+        <f t="shared" ref="O418" si="489">J418*K418*G418</f>
+        <v>1</v>
+      </c>
+      <c r="P418" s="5">
+        <f t="shared" ref="P418" si="490">J418*K418*H418</f>
+        <v>25</v>
+      </c>
+      <c r="Q418" s="11"/>
+    </row>
+    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A419" s="22"/>
+      <c r="B419" s="4">
+        <v>3</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D419" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E419" s="4">
+        <v>90</v>
+      </c>
+      <c r="F419" s="4">
+        <v>8</v>
+      </c>
+      <c r="G419" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H419" s="10">
+        <v>13</v>
+      </c>
+      <c r="I419" s="4"/>
+      <c r="J419" s="10">
+        <v>1</v>
+      </c>
+      <c r="K419" s="10">
+        <v>1</v>
+      </c>
+      <c r="L419" s="4"/>
+      <c r="M419" s="4">
+        <f t="shared" ref="M419:M426" si="491">J419*K419*E419</f>
+        <v>90</v>
+      </c>
+      <c r="N419" s="4">
+        <f t="shared" ref="N419:N426" si="492">J419*K419*F419</f>
+        <v>8</v>
+      </c>
+      <c r="O419" s="4">
+        <f t="shared" ref="O419:O426" si="493">J419*K419*G419</f>
+        <v>0.01</v>
+      </c>
+      <c r="P419" s="5">
+        <f t="shared" ref="P419:P426" si="494">J419*K419*H419</f>
+        <v>13</v>
+      </c>
+      <c r="Q419" s="16">
+        <f t="shared" ref="Q419" si="495">F419/H419</f>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A420" s="22"/>
+      <c r="B420" s="4"/>
+      <c r="C420" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D420" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E420" s="4">
+        <v>100</v>
+      </c>
+      <c r="F420" s="4">
+        <v>4</v>
+      </c>
+      <c r="G420" s="4">
+        <v>2</v>
+      </c>
+      <c r="H420" s="10">
+        <v>15</v>
+      </c>
+      <c r="I420" s="4"/>
+      <c r="J420" s="10">
+        <v>1</v>
+      </c>
+      <c r="K420" s="10">
+        <v>1</v>
+      </c>
+      <c r="L420" s="4"/>
+      <c r="M420" s="4">
+        <f t="shared" si="491"/>
+        <v>100</v>
+      </c>
+      <c r="N420" s="4">
+        <f t="shared" si="492"/>
+        <v>4</v>
+      </c>
+      <c r="O420" s="4">
+        <f t="shared" si="493"/>
+        <v>2</v>
+      </c>
+      <c r="P420" s="5">
+        <f t="shared" si="494"/>
+        <v>15</v>
+      </c>
+      <c r="Q420" s="16"/>
+    </row>
+    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A421" s="3"/>
+      <c r="B421" s="4"/>
+      <c r="C421" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E421" s="4">
+        <v>57</v>
+      </c>
+      <c r="F421" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G421" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H421" s="4">
+        <v>14</v>
+      </c>
+      <c r="I421" s="4"/>
+      <c r="J421" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K421" s="4">
+        <v>1</v>
+      </c>
+      <c r="L421" s="4"/>
+      <c r="M421" s="4">
+        <f t="shared" si="491"/>
+        <v>34.199999999999996</v>
+      </c>
+      <c r="N421" s="4">
+        <f t="shared" si="492"/>
+        <v>0.42</v>
+      </c>
+      <c r="O421" s="4">
+        <f t="shared" si="493"/>
+        <v>0.18</v>
+      </c>
+      <c r="P421" s="5">
+        <f t="shared" si="494"/>
+        <v>8.4</v>
+      </c>
+      <c r="Q421" s="16">
+        <f>F421/H421</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="R421" s="11">
+        <f t="shared" ref="R421" si="496">E421/F421</f>
+        <v>81.428571428571431</v>
+      </c>
+    </row>
+    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A422" s="3"/>
+      <c r="B422" s="4"/>
+      <c r="C422" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D422" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E422" s="4">
+        <v>78</v>
+      </c>
+      <c r="F422" s="10">
+        <v>6</v>
+      </c>
+      <c r="G422" s="10">
+        <v>5</v>
+      </c>
+      <c r="H422" s="4">
+        <v>1</v>
+      </c>
+      <c r="I422" s="4"/>
+      <c r="J422" s="4">
+        <v>1</v>
+      </c>
+      <c r="K422" s="4">
+        <v>1</v>
+      </c>
+      <c r="L422" s="4"/>
+      <c r="M422" s="4">
+        <f t="shared" si="491"/>
+        <v>78</v>
+      </c>
+      <c r="N422" s="4">
+        <f t="shared" si="492"/>
+        <v>6</v>
+      </c>
+      <c r="O422" s="4">
+        <f t="shared" si="493"/>
+        <v>5</v>
+      </c>
+      <c r="P422" s="5">
+        <f t="shared" si="494"/>
+        <v>1</v>
+      </c>
+      <c r="Q422" s="11">
+        <f t="shared" ref="Q422:Q423" si="497">F422/H422</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A423" s="3"/>
+      <c r="B423" s="4"/>
+      <c r="C423" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E423" s="4">
+        <v>17</v>
+      </c>
+      <c r="F423" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G423" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H423" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I423" s="4"/>
+      <c r="J423" s="4">
+        <v>3</v>
+      </c>
+      <c r="K423" s="4">
+        <v>1</v>
+      </c>
+      <c r="L423" s="4"/>
+      <c r="M423" s="4">
+        <f t="shared" si="491"/>
+        <v>51</v>
+      </c>
+      <c r="N423" s="4">
+        <f t="shared" si="492"/>
+        <v>10.8</v>
+      </c>
+      <c r="O423" s="4">
+        <f t="shared" si="493"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="P423" s="5">
+        <f t="shared" si="494"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Q423" s="11">
+        <f t="shared" si="497"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A424" s="3"/>
+      <c r="B424" s="4">
+        <v>4</v>
+      </c>
+      <c r="C424" t="s">
+        <v>96</v>
+      </c>
+      <c r="D424" t="s">
+        <v>91</v>
+      </c>
+      <c r="E424" s="18">
+        <v>300</v>
+      </c>
+      <c r="F424" s="18">
+        <v>34</v>
+      </c>
+      <c r="G424" s="18">
+        <v>13</v>
+      </c>
+      <c r="H424" s="18">
+        <v>11</v>
+      </c>
+      <c r="I424" s="4"/>
+      <c r="J424" s="26">
+        <v>1</v>
+      </c>
+      <c r="K424" s="26">
+        <v>1</v>
+      </c>
+      <c r="L424" s="4"/>
+      <c r="M424" s="10">
+        <f t="shared" si="491"/>
+        <v>300</v>
+      </c>
+      <c r="N424" s="10">
+        <f t="shared" si="492"/>
+        <v>34</v>
+      </c>
+      <c r="O424" s="10">
+        <f t="shared" si="493"/>
+        <v>13</v>
+      </c>
+      <c r="P424" s="5">
+        <f t="shared" si="494"/>
+        <v>11</v>
+      </c>
+      <c r="Q424" s="11"/>
+    </row>
+    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A425" s="6"/>
+      <c r="B425" s="4"/>
+      <c r="C425" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E425" s="4">
+        <v>111</v>
+      </c>
+      <c r="F425" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="G425" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H425" s="4">
+        <v>23</v>
+      </c>
+      <c r="I425" s="4"/>
+      <c r="J425" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="K425" s="4">
+        <v>1</v>
+      </c>
+      <c r="L425" s="4"/>
+      <c r="M425" s="4">
+        <f t="shared" si="491"/>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="N425" s="4">
+        <f t="shared" si="492"/>
+        <v>3.12</v>
+      </c>
+      <c r="O425" s="4">
+        <f t="shared" si="493"/>
+        <v>1.08</v>
+      </c>
+      <c r="P425" s="5">
+        <f t="shared" si="494"/>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="Q425" s="11">
+        <f t="shared" ref="Q425" si="498">F425/H425</f>
+        <v>0.11304347826086956</v>
+      </c>
+    </row>
+    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A426" s="6"/>
+      <c r="B426" s="4">
+        <v>5</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D426" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E426" s="4">
+        <v>95</v>
+      </c>
+      <c r="F426" s="4">
+        <v>1</v>
+      </c>
+      <c r="G426" s="4">
+        <v>1</v>
+      </c>
+      <c r="H426" s="4">
+        <v>25</v>
+      </c>
+      <c r="I426" s="10"/>
+      <c r="J426" s="10">
+        <v>1</v>
+      </c>
+      <c r="K426" s="10">
+        <v>1</v>
+      </c>
+      <c r="L426" s="10"/>
+      <c r="M426" s="4">
+        <f t="shared" si="491"/>
+        <v>95</v>
+      </c>
+      <c r="N426" s="4">
+        <f t="shared" si="492"/>
+        <v>1</v>
+      </c>
+      <c r="O426" s="4">
+        <f t="shared" si="493"/>
+        <v>1</v>
+      </c>
+      <c r="P426" s="5">
+        <f t="shared" si="494"/>
+        <v>25</v>
+      </c>
+      <c r="Q426" s="11"/>
+    </row>
+    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A427" s="6"/>
+      <c r="B427" s="4">
+        <v>6</v>
+      </c>
+      <c r="C427" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D427" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E427" s="10">
+        <v>165</v>
+      </c>
+      <c r="F427" s="10">
+        <v>31</v>
+      </c>
+      <c r="G427" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="H427" s="10">
+        <v>1</v>
+      </c>
+      <c r="I427" s="10"/>
+      <c r="J427" s="10">
+        <v>1</v>
+      </c>
+      <c r="K427" s="10">
+        <v>1</v>
+      </c>
+      <c r="L427" s="10"/>
+      <c r="M427" s="4">
+        <f>J427*K427*E427</f>
+        <v>165</v>
+      </c>
+      <c r="N427" s="4">
+        <f>J427*K427*F427</f>
+        <v>31</v>
+      </c>
+      <c r="O427" s="4">
+        <f>J427*K427*G427</f>
+        <v>3.6</v>
+      </c>
+      <c r="P427" s="5">
+        <f>J427*K427*H427</f>
+        <v>1</v>
+      </c>
+      <c r="Q427" s="11"/>
+    </row>
+    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A428" s="6"/>
+      <c r="B428" s="4"/>
+      <c r="C428" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D428" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E428" s="10">
+        <v>80</v>
+      </c>
+      <c r="F428" s="10">
+        <v>1</v>
+      </c>
+      <c r="G428" s="10">
+        <v>8</v>
+      </c>
+      <c r="H428" s="10">
+        <v>2</v>
+      </c>
+      <c r="I428" s="10"/>
+      <c r="J428" s="10">
+        <v>1</v>
+      </c>
+      <c r="K428" s="10">
+        <v>1</v>
+      </c>
+      <c r="L428" s="10"/>
+      <c r="M428" s="4">
+        <f t="shared" ref="M428:M431" si="499">J428*K428*E428</f>
+        <v>80</v>
+      </c>
+      <c r="N428" s="4">
+        <f t="shared" ref="N428:N431" si="500">J428*K428*F428</f>
+        <v>1</v>
+      </c>
+      <c r="O428" s="4">
+        <f t="shared" ref="O428:O431" si="501">J428*K428*G428</f>
+        <v>8</v>
+      </c>
+      <c r="P428" s="5">
+        <f t="shared" ref="P428:P431" si="502">J428*K428*H428</f>
+        <v>2</v>
+      </c>
+      <c r="Q428" s="16">
+        <f t="shared" ref="Q428" si="503">F428/H428</f>
+        <v>0.5</v>
+      </c>
+      <c r="R428" s="18">
+        <f t="shared" ref="R428" si="504">E428/F428</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A429" s="6"/>
+      <c r="B429" s="4"/>
+      <c r="C429" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D429" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E429" s="10">
+        <v>60</v>
+      </c>
+      <c r="F429" s="10">
+        <v>4</v>
+      </c>
+      <c r="G429" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="H429" s="10">
+        <v>13</v>
+      </c>
+      <c r="I429" s="4"/>
+      <c r="J429" s="10">
+        <v>2</v>
+      </c>
+      <c r="K429" s="10">
+        <v>1</v>
+      </c>
+      <c r="L429" s="4"/>
+      <c r="M429" s="10">
+        <f t="shared" si="499"/>
+        <v>120</v>
+      </c>
+      <c r="N429" s="10">
+        <f t="shared" si="500"/>
+        <v>8</v>
+      </c>
+      <c r="O429" s="10">
+        <f t="shared" si="501"/>
+        <v>0.02</v>
+      </c>
+      <c r="P429" s="5">
+        <f t="shared" si="502"/>
+        <v>26</v>
+      </c>
+      <c r="Q429" s="16"/>
+    </row>
+    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A430" s="6"/>
+      <c r="B430" s="4">
+        <v>7</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D430" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E430" s="4">
+        <v>95</v>
+      </c>
+      <c r="F430" s="4">
+        <v>1</v>
+      </c>
+      <c r="G430" s="4">
+        <v>1</v>
+      </c>
+      <c r="H430" s="4">
+        <v>25</v>
+      </c>
+      <c r="I430" s="10"/>
+      <c r="J430" s="10">
+        <v>1</v>
+      </c>
+      <c r="K430" s="10">
+        <v>1</v>
+      </c>
+      <c r="L430" s="10"/>
+      <c r="M430" s="4">
+        <f t="shared" si="499"/>
+        <v>95</v>
+      </c>
+      <c r="N430" s="4">
+        <f t="shared" si="500"/>
+        <v>1</v>
+      </c>
+      <c r="O430" s="4">
+        <f t="shared" si="501"/>
+        <v>1</v>
+      </c>
+      <c r="P430" s="5">
+        <f t="shared" si="502"/>
+        <v>25</v>
+      </c>
+      <c r="Q430" s="11"/>
+    </row>
+    <row r="431" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="7"/>
+      <c r="B431" s="8"/>
+      <c r="C431" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D431" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E431" s="13">
+        <v>120</v>
+      </c>
+      <c r="F431" s="13">
+        <v>12</v>
+      </c>
+      <c r="G431" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="H431" s="13">
+        <v>18</v>
+      </c>
+      <c r="I431" s="8"/>
+      <c r="J431" s="13">
+        <v>1</v>
+      </c>
+      <c r="K431" s="13">
+        <v>1</v>
+      </c>
+      <c r="L431" s="8"/>
+      <c r="M431" s="13">
+        <f t="shared" si="499"/>
+        <v>120</v>
+      </c>
+      <c r="N431" s="13">
+        <f t="shared" si="500"/>
+        <v>12</v>
+      </c>
+      <c r="O431" s="13">
+        <f t="shared" si="501"/>
+        <v>0.01</v>
+      </c>
+      <c r="P431" s="23">
+        <f t="shared" si="502"/>
+        <v>18</v>
+      </c>
+      <c r="Q431" s="16"/>
+    </row>
+    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A432" s="4"/>
+      <c r="B432" s="4"/>
+      <c r="C432" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D432" s="4"/>
+      <c r="E432" s="4"/>
+      <c r="F432" s="4"/>
+      <c r="G432" s="4"/>
+      <c r="H432" s="4"/>
+      <c r="I432" s="4"/>
+      <c r="J432" s="4"/>
+      <c r="K432" s="4"/>
+      <c r="L432" s="4"/>
+      <c r="M432" s="16">
+        <f>SUM(M415:M431)</f>
+        <v>2061.8000000000002</v>
+      </c>
+      <c r="N432" s="16">
+        <f>SUM(N415:N431)</f>
+        <v>166.64</v>
+      </c>
+      <c r="O432" s="16">
+        <f>SUM(O415:O431)</f>
+        <v>44.17</v>
+      </c>
+      <c r="P432" s="16">
+        <f>SUM(P415:P431)</f>
+        <v>262.29999999999995</v>
+      </c>
+      <c r="Q432" s="12">
+        <f>N432/(O432+P432)</f>
+        <v>0.54374000717851667</v>
       </c>
     </row>
   </sheetData>
@@ -16118,7 +18990,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16131,7 +19003,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="24">
         <v>43183</v>
@@ -16139,10 +19011,10 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="13">
         <v>77</v>
@@ -16182,10 +19054,10 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="10">
         <v>40</v>
@@ -16290,10 +19162,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H6">
         <v>7.5</v>
@@ -16301,10 +19173,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="18">
         <f>K5/H6</f>
@@ -16325,10 +19197,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="18">
         <v>300</v>
@@ -16346,4 +19218,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A9F1E4-1CCF-4CDA-90C3-041D3A0788EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>